--- a/weekly/要做的事.xlsx
+++ b/weekly/要做的事.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="58">
   <si>
     <t>完成情况%</t>
   </si>
@@ -259,25 +259,13 @@
     <t>第1周计划</t>
   </si>
   <si>
-    <t>2019.9.12开始</t>
-  </si>
-  <si>
     <t>完成情况</t>
   </si>
   <si>
     <t>cmake《cmake实践》</t>
   </si>
   <si>
-    <t>古月居ros书</t>
-  </si>
-  <si>
     <t>机器人接口</t>
-  </si>
-  <si>
-    <t>orb-slam2</t>
-  </si>
-  <si>
-    <t>目的是使机器人先跑起来</t>
   </si>
   <si>
     <t>第2周计划</t>
@@ -361,7 +349,60 @@
     <t>第20周计划看的论文</t>
   </si>
   <si>
-    <t>激光slam</t>
+    <r>
+      <t>古月居ros书</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,使用ros启动kinect和YDLIDAR</t>
+    </r>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>orb-slam2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，以视觉为核心，发现不足后，想办法用其他传感器弥补</t>
+    </r>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌握ROS1后学习ROS2，ROS2弥补了ROS1很多缺陷，能更好产品化</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解激光slam（cartographer）及与orbslam2的结合</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.9.12开始：目标是先使实物能动起来，闲下来时再搭仿真环境，重点在slam</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>找个经典实例学学（微信群问问等），完成整个机器人ROS框架设计</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解导航功能包及驱动部分，注意其中算法，各功能包之间信号的传递</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>六级计划（12.14，15-17：25）：每天花一小时（半小时听力半小时其他）学习英语，重点关注比较薄弱的地方（主要是听力）；闲余时间用百词斩刷刷单词；最后一个月练习写作，每天写一篇，背范文。</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -525,7 +566,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -617,6 +658,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -894,10 +944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C360"/>
+  <dimension ref="A1:C362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1021,7 +1071,9 @@
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="7"/>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
@@ -1030,7 +1082,9 @@
       <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
@@ -1111,934 +1165,944 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="21" customHeight="1">
-      <c r="A24" s="9"/>
-      <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="10" t="s">
+      <c r="A24" s="8">
+        <v>20</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="21" customHeight="1">
+      <c r="A25" s="8">
+        <v>21</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="21" customHeight="1">
+      <c r="A26" s="9"/>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B27" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="12">
-        <v>1</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="12">
-        <v>2</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="5"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="12">
+        <v>1</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="12">
+        <v>2</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="12">
         <v>3</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="5"/>
-    </row>
-    <row r="29" spans="1:3" ht="16.5">
-      <c r="A29" s="12">
+      <c r="B30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="5"/>
+    </row>
+    <row r="31" spans="1:3" ht="16.5">
+      <c r="A31" s="12">
         <v>4</v>
       </c>
-      <c r="B29" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="5"/>
-    </row>
-    <row r="30" spans="1:3" ht="15">
-      <c r="A30" s="12">
+      <c r="B31" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:3" ht="15">
+      <c r="A32" s="12">
         <v>5</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="6"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="12"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="6"/>
-    </row>
-    <row r="32" spans="1:3" ht="16.5">
-      <c r="A32" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="B32" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="6"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="12">
+      <c r="A33" s="12"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="30"/>
+      <c r="C34" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="12">
         <v>1</v>
       </c>
-      <c r="B33" s="30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15">
-      <c r="A34" s="12">
-        <v>2</v>
-      </c>
-      <c r="B34" s="17"/>
-    </row>
-    <row r="35" spans="1:3" ht="16.5">
-      <c r="A35" s="12">
-        <v>3</v>
-      </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="5"/>
+      <c r="B35" s="30" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="36" spans="1:3" ht="15">
       <c r="A36" s="12">
+        <v>2</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16.5">
+      <c r="A37" s="12">
+        <v>3</v>
+      </c>
+      <c r="B37" s="16"/>
+      <c r="C37" s="5"/>
+    </row>
+    <row r="38" spans="1:3" ht="15">
+      <c r="A38" s="12">
         <v>4</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="5"/>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="12">
+      <c r="B38" s="14"/>
+      <c r="C38" s="5"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="12">
         <v>5</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="6"/>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="B38" s="3"/>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="6"/>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="12">
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="12">
         <v>1</v>
       </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="5"/>
-    </row>
-    <row r="41" spans="1:3" ht="20.25">
-      <c r="A41" s="12">
+      <c r="B42" s="7"/>
+      <c r="C42" s="5"/>
+    </row>
+    <row r="43" spans="1:3" ht="20.25">
+      <c r="A43" s="12">
         <v>2</v>
       </c>
-      <c r="B41" s="18"/>
-      <c r="C41" s="5"/>
-    </row>
-    <row r="42" spans="1:3" ht="15">
-      <c r="A42" s="12">
+      <c r="B43" s="18"/>
+      <c r="C43" s="5"/>
+    </row>
+    <row r="44" spans="1:3" ht="15">
+      <c r="A44" s="12">
         <v>3</v>
       </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="5"/>
-    </row>
-    <row r="43" spans="1:3" ht="33.75" customHeight="1">
-      <c r="A43" s="12">
+      <c r="B44" s="14"/>
+      <c r="C44" s="5"/>
+    </row>
+    <row r="45" spans="1:3" ht="33.75" customHeight="1">
+      <c r="A45" s="12">
         <v>4</v>
       </c>
-      <c r="B43" s="15"/>
-      <c r="C43" s="5"/>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="12">
+      <c r="B45" s="15"/>
+      <c r="C45" s="5"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="12">
         <v>5</v>
       </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="5"/>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="B45" s="2"/>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B46" s="15"/>
-      <c r="C46" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="B46" s="11"/>
+      <c r="C46" s="5"/>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="12">
-        <v>1</v>
-      </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="5"/>
+      <c r="B47" s="2"/>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="12">
-        <v>2</v>
-      </c>
-      <c r="C48" s="5"/>
+      <c r="A48" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" s="15"/>
+      <c r="C48" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B49" s="7"/>
       <c r="C49" s="5"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="12">
-        <v>4</v>
-      </c>
-      <c r="B50" s="19"/>
+        <v>2</v>
+      </c>
       <c r="C50" s="5"/>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="12">
+        <v>3</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c r="C51" s="5"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="12">
+        <v>4</v>
+      </c>
+      <c r="B52" s="19"/>
+      <c r="C52" s="5"/>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="12">
         <v>5</v>
       </c>
-      <c r="B51" s="20"/>
-      <c r="C51" s="7"/>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="B52" s="20"/>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="10" t="s">
-        <v>36</v>
-      </c>
       <c r="B53" s="20"/>
-      <c r="C53" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="C53" s="7"/>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="12">
-        <v>1</v>
-      </c>
       <c r="B54" s="20"/>
-      <c r="C54" s="6"/>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="12">
-        <v>2</v>
-      </c>
-      <c r="B55" s="21"/>
-      <c r="C55" s="5"/>
+      <c r="A55" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55" s="20"/>
+      <c r="C55" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="12">
-        <v>3</v>
-      </c>
-      <c r="B56" s="21"/>
-      <c r="C56" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="B56" s="20"/>
+      <c r="C56" s="6"/>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B57" s="21"/>
       <c r="C57" s="5"/>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B58" s="21"/>
       <c r="C58" s="5"/>
     </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="12">
+        <v>4</v>
+      </c>
+      <c r="B59" s="21"/>
+      <c r="C59" s="5"/>
+    </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="12">
+      <c r="A60" s="12">
+        <v>5</v>
+      </c>
+      <c r="B60" s="21"/>
+      <c r="C60" s="5"/>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="12">
         <v>1</v>
       </c>
-      <c r="B61" s="15"/>
-      <c r="C61" s="5"/>
-    </row>
-    <row r="62" spans="1:3" ht="16.5">
-      <c r="A62" s="12">
-        <v>2</v>
-      </c>
-      <c r="B62" s="22"/>
-      <c r="C62" s="7"/>
-    </row>
-    <row r="63" spans="1:3" ht="16.5">
-      <c r="A63" s="12">
-        <v>3</v>
-      </c>
-      <c r="B63" s="22"/>
+      <c r="B63" s="15"/>
       <c r="C63" s="5"/>
     </row>
     <row r="64" spans="1:3" ht="16.5">
       <c r="A64" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B64" s="22"/>
-      <c r="C64" s="5"/>
+      <c r="C64" s="7"/>
     </row>
     <row r="65" spans="1:3" ht="16.5">
       <c r="A65" s="12">
+        <v>3</v>
+      </c>
+      <c r="B65" s="22"/>
+      <c r="C65" s="5"/>
+    </row>
+    <row r="66" spans="1:3" ht="16.5">
+      <c r="A66" s="12">
+        <v>4</v>
+      </c>
+      <c r="B66" s="22"/>
+      <c r="C66" s="5"/>
+    </row>
+    <row r="67" spans="1:3" ht="16.5">
+      <c r="A67" s="12">
         <v>5</v>
       </c>
-      <c r="B65" s="22"/>
-      <c r="C65" s="7"/>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="12">
-        <v>1</v>
-      </c>
-      <c r="B68" s="21"/>
-      <c r="C68" s="5"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="7"/>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="12">
-        <v>2</v>
-      </c>
-      <c r="B69" s="21"/>
-      <c r="C69" s="5"/>
+      <c r="A69" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B70" s="21"/>
       <c r="C70" s="5"/>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B71" s="21"/>
       <c r="C71" s="5"/>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B72" s="21"/>
       <c r="C72" s="5"/>
     </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="12">
+        <v>4</v>
+      </c>
+      <c r="B73" s="21"/>
+      <c r="C73" s="5"/>
+    </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="16.5">
-      <c r="A75" s="12">
-        <v>1</v>
-      </c>
-      <c r="B75" s="22"/>
-      <c r="C75" s="5"/>
-    </row>
-    <row r="76" spans="1:3" ht="16.5">
-      <c r="A76" s="12">
-        <v>2</v>
-      </c>
-      <c r="B76" s="22"/>
-      <c r="C76" s="5"/>
+      <c r="A74" s="12">
+        <v>5</v>
+      </c>
+      <c r="B74" s="21"/>
+      <c r="C74" s="5"/>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="77" spans="1:3" ht="16.5">
       <c r="A77" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B77" s="22"/>
       <c r="C77" s="5"/>
     </row>
     <row r="78" spans="1:3" ht="16.5">
       <c r="A78" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B78" s="22"/>
       <c r="C78" s="5"/>
     </row>
     <row r="79" spans="1:3" ht="16.5">
       <c r="A79" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B79" s="22"/>
       <c r="C79" s="5"/>
     </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="16.5">
-      <c r="A82" s="12">
-        <v>1</v>
-      </c>
-      <c r="B82" s="16"/>
-      <c r="C82" s="23"/>
+    <row r="80" spans="1:3" ht="16.5">
+      <c r="A80" s="12">
+        <v>4</v>
+      </c>
+      <c r="B80" s="22"/>
+      <c r="C80" s="5"/>
+    </row>
+    <row r="81" spans="1:3" ht="16.5">
+      <c r="A81" s="12">
+        <v>5</v>
+      </c>
+      <c r="B81" s="22"/>
+      <c r="C81" s="5"/>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="12">
-        <v>2</v>
-      </c>
-      <c r="B83" s="11"/>
-      <c r="C83" s="23"/>
+      <c r="A83" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="84" spans="1:3" ht="16.5">
       <c r="A84" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B84" s="16"/>
       <c r="C84" s="23"/>
     </row>
-    <row r="85" spans="1:3" ht="16.5">
+    <row r="85" spans="1:3">
       <c r="A85" s="12">
-        <v>4</v>
-      </c>
-      <c r="B85" s="16"/>
+        <v>2</v>
+      </c>
+      <c r="B85" s="11"/>
       <c r="C85" s="23"/>
     </row>
     <row r="86" spans="1:3" ht="16.5">
       <c r="A86" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B86" s="16"/>
       <c r="C86" s="23"/>
     </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B88" s="7" t="s">
+    <row r="87" spans="1:3" ht="16.5">
+      <c r="A87" s="12">
+        <v>4</v>
+      </c>
+      <c r="B87" s="16"/>
+      <c r="C87" s="23"/>
+    </row>
+    <row r="88" spans="1:3" ht="16.5">
+      <c r="A88" s="12">
+        <v>5</v>
+      </c>
+      <c r="B88" s="16"/>
+      <c r="C88" s="23"/>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C88" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="16.5">
-      <c r="A89" s="12">
-        <v>1</v>
-      </c>
-      <c r="B89" s="16"/>
-      <c r="C89" s="23"/>
-    </row>
-    <row r="90" spans="1:3" ht="16.5">
-      <c r="A90" s="12">
-        <v>2</v>
-      </c>
-      <c r="B90" s="16"/>
-      <c r="C90" s="23"/>
+      <c r="B90" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="91" spans="1:3" ht="16.5">
       <c r="A91" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B91" s="16"/>
       <c r="C91" s="23"/>
     </row>
     <row r="92" spans="1:3" ht="16.5">
       <c r="A92" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B92" s="16"/>
       <c r="C92" s="23"/>
     </row>
     <row r="93" spans="1:3" ht="16.5">
       <c r="A93" s="12">
+        <v>3</v>
+      </c>
+      <c r="B93" s="16"/>
+      <c r="C93" s="23"/>
+    </row>
+    <row r="94" spans="1:3" ht="16.5">
+      <c r="A94" s="12">
+        <v>4</v>
+      </c>
+      <c r="B94" s="16"/>
+      <c r="C94" s="23"/>
+    </row>
+    <row r="95" spans="1:3" ht="16.5">
+      <c r="A95" s="12">
         <v>5</v>
       </c>
-      <c r="B93" s="13"/>
-      <c r="C93" s="23"/>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="16.5">
-      <c r="A96" s="12">
-        <v>1</v>
-      </c>
-      <c r="B96" s="16"/>
-      <c r="C96" s="23"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="23"/>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="12">
-        <v>2</v>
-      </c>
-      <c r="B97" s="7"/>
-      <c r="C97" s="23"/>
+      <c r="A97" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="98" spans="1:3" ht="16.5">
       <c r="A98" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B98" s="16"/>
       <c r="C98" s="23"/>
     </row>
-    <row r="99" spans="1:3" ht="16.5">
+    <row r="99" spans="1:3">
       <c r="A99" s="12">
-        <v>4</v>
-      </c>
-      <c r="B99" s="16"/>
+        <v>2</v>
+      </c>
+      <c r="B99" s="7"/>
       <c r="C99" s="23"/>
     </row>
     <row r="100" spans="1:3" ht="16.5">
       <c r="A100" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B100" s="16"/>
       <c r="C100" s="23"/>
     </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B102" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C102" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="12">
-        <v>1</v>
-      </c>
-      <c r="C103" s="23"/>
+    <row r="101" spans="1:3" ht="16.5">
+      <c r="A101" s="12">
+        <v>4</v>
+      </c>
+      <c r="B101" s="16"/>
+      <c r="C101" s="23"/>
+    </row>
+    <row r="102" spans="1:3" ht="16.5">
+      <c r="A102" s="12">
+        <v>5</v>
+      </c>
+      <c r="B102" s="16"/>
+      <c r="C102" s="23"/>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="12">
-        <v>2</v>
-      </c>
-      <c r="C104" s="23"/>
+      <c r="A104" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B104" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C105" s="23"/>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="12">
-        <v>4</v>
-      </c>
-      <c r="C106" s="24"/>
+        <v>2</v>
+      </c>
+      <c r="C106" s="23"/>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="12">
+        <v>3</v>
+      </c>
+      <c r="C107" s="23"/>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="12">
+        <v>4</v>
+      </c>
+      <c r="C108" s="24"/>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="12">
         <v>5</v>
       </c>
-      <c r="C107" s="23"/>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="25"/>
-      <c r="C108" s="26"/>
+      <c r="C109" s="23"/>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="12">
-        <v>1</v>
-      </c>
-      <c r="C111" s="7"/>
+      <c r="A110" s="25"/>
+      <c r="C110" s="26"/>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="12">
-        <v>2</v>
-      </c>
-      <c r="C112" s="23"/>
+      <c r="A112" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="12">
-        <v>3</v>
-      </c>
-      <c r="C113" s="23"/>
+        <v>1</v>
+      </c>
+      <c r="C113" s="7"/>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C114" s="23"/>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="12">
+        <v>3</v>
+      </c>
+      <c r="C115" s="23"/>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="12">
+        <v>4</v>
+      </c>
+      <c r="C116" s="23"/>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="12">
         <v>5</v>
       </c>
-      <c r="C115" s="23"/>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C117" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="12">
-        <v>1</v>
-      </c>
-      <c r="C118" s="7"/>
+      <c r="C117" s="23"/>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="12">
-        <v>2</v>
-      </c>
-      <c r="C119" s="7"/>
+      <c r="A119" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C120" s="7"/>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="12"/>
+      <c r="A121" s="12">
+        <v>2</v>
+      </c>
       <c r="C121" s="7"/>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="12">
+        <v>3</v>
+      </c>
+      <c r="C122" s="7"/>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="12"/>
+      <c r="C123" s="7"/>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="12">
         <v>4</v>
       </c>
-      <c r="C122" s="7"/>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="12">
+      <c r="C124" s="7"/>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="12">
         <v>5</v>
       </c>
-      <c r="C123" s="7"/>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C125" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="12">
-        <v>1</v>
-      </c>
-      <c r="C126" s="7"/>
+      <c r="C125" s="7"/>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="12">
-        <v>2</v>
-      </c>
-      <c r="C127" s="7"/>
+      <c r="A127" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C128" s="7"/>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C129" s="7"/>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="12">
+        <v>3</v>
+      </c>
+      <c r="C130" s="7"/>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="12">
+        <v>4</v>
+      </c>
+      <c r="C131" s="7"/>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="12">
         <v>5</v>
       </c>
-      <c r="C130" s="7"/>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C132" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="12">
-        <v>1</v>
-      </c>
-      <c r="C133" s="7"/>
+      <c r="C132" s="7"/>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="12">
-        <v>2</v>
-      </c>
-      <c r="C134" s="7"/>
+      <c r="A134" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C135" s="7"/>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C136" s="7"/>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="12">
+        <v>3</v>
+      </c>
+      <c r="C137" s="7"/>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="12">
+        <v>4</v>
+      </c>
+      <c r="C138" s="7"/>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="12">
         <v>5</v>
       </c>
-      <c r="C137" s="7"/>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B139" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C139" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="12">
-        <v>1</v>
-      </c>
-      <c r="B140" s="15"/>
-      <c r="C140" s="7"/>
+      <c r="C139" s="7"/>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="12">
-        <v>2</v>
-      </c>
-      <c r="B141" s="7"/>
-      <c r="C141" s="7"/>
+      <c r="A141" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B142" s="15"/>
       <c r="C142" s="7"/>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="12">
-        <v>4</v>
-      </c>
-      <c r="B143" s="15"/>
+        <v>2</v>
+      </c>
+      <c r="B143" s="7"/>
       <c r="C143" s="7"/>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="12">
+        <v>3</v>
+      </c>
+      <c r="B144" s="15"/>
+      <c r="C144" s="7"/>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="12">
+        <v>4</v>
+      </c>
+      <c r="B145" s="15"/>
+      <c r="C145" s="7"/>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="12">
         <v>5</v>
       </c>
-      <c r="B144" s="7"/>
-      <c r="C144" s="7"/>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B146" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C146" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147" s="12">
-        <v>1</v>
-      </c>
-      <c r="B147" s="15"/>
-      <c r="C147" s="7"/>
+      <c r="B146" s="7"/>
+      <c r="C146" s="7"/>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" s="12">
-        <v>2</v>
-      </c>
-      <c r="B148" s="7"/>
-      <c r="C148" s="7"/>
+      <c r="A148" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B149" s="15"/>
       <c r="C149" s="7"/>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="12">
-        <v>4</v>
-      </c>
-      <c r="B150" s="15"/>
+        <v>2</v>
+      </c>
+      <c r="B150" s="7"/>
       <c r="C150" s="7"/>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="12">
+        <v>3</v>
+      </c>
+      <c r="B151" s="15"/>
+      <c r="C151" s="7"/>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="12">
+        <v>4</v>
+      </c>
+      <c r="B152" s="15"/>
+      <c r="C152" s="7"/>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="12">
         <v>5</v>
       </c>
-      <c r="B151" s="7"/>
-      <c r="C151" s="7"/>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B153" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C153" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" s="12">
-        <v>1</v>
-      </c>
-      <c r="B154" s="15"/>
-      <c r="C154" s="7"/>
+      <c r="B153" s="7"/>
+      <c r="C153" s="7"/>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155" s="12">
-        <v>2</v>
-      </c>
-      <c r="B155" s="7"/>
-      <c r="C155" s="7"/>
+      <c r="A155" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B156" s="15"/>
       <c r="C156" s="7"/>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="12">
-        <v>4</v>
-      </c>
-      <c r="B157" s="15"/>
+        <v>2</v>
+      </c>
+      <c r="B157" s="7"/>
       <c r="C157" s="7"/>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="12">
+        <v>3</v>
+      </c>
+      <c r="B158" s="15"/>
+      <c r="C158" s="7"/>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="12">
+        <v>4</v>
+      </c>
+      <c r="B159" s="15"/>
+      <c r="C159" s="7"/>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="12">
         <v>5</v>
       </c>
-      <c r="B158" s="7"/>
-      <c r="C158" s="7"/>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B160" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C160" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="A161" s="12">
-        <v>1</v>
-      </c>
-      <c r="B161" s="15"/>
-      <c r="C161" s="7"/>
+      <c r="B160" s="7"/>
+      <c r="C160" s="7"/>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162" s="12">
-        <v>2</v>
-      </c>
-      <c r="B162" s="7"/>
-      <c r="C162" s="7"/>
+      <c r="A162" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B163" s="15"/>
       <c r="C163" s="7"/>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="12">
-        <v>4</v>
-      </c>
-      <c r="B164" s="15"/>
+        <v>2</v>
+      </c>
+      <c r="B164" s="7"/>
       <c r="C164" s="7"/>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="12">
+        <v>3</v>
+      </c>
+      <c r="B165" s="15"/>
+      <c r="C165" s="7"/>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="12">
+        <v>4</v>
+      </c>
+      <c r="B166" s="15"/>
+      <c r="C166" s="7"/>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="12">
         <v>5</v>
       </c>
-      <c r="B165" s="7"/>
-      <c r="C165" s="7"/>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="A167" s="27"/>
-      <c r="B167" s="28"/>
-      <c r="C167" s="28"/>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="A168" s="25"/>
-      <c r="B168" s="29"/>
-      <c r="C168" s="28"/>
+      <c r="B167" s="7"/>
+      <c r="C167" s="7"/>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" s="25"/>
+      <c r="A169" s="27"/>
       <c r="B169" s="28"/>
       <c r="C169" s="28"/>
     </row>
@@ -2049,31 +2113,31 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="25"/>
-      <c r="B171" s="29"/>
+      <c r="B171" s="28"/>
       <c r="C171" s="28"/>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="25"/>
-      <c r="B172" s="28"/>
+      <c r="B172" s="29"/>
       <c r="C172" s="28"/>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="25"/>
-      <c r="B173" s="28"/>
+      <c r="B173" s="29"/>
       <c r="C173" s="28"/>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174" s="27"/>
+      <c r="A174" s="25"/>
       <c r="B174" s="28"/>
       <c r="C174" s="28"/>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="25"/>
-      <c r="B175" s="29"/>
+      <c r="B175" s="28"/>
       <c r="C175" s="28"/>
     </row>
     <row r="176" spans="1:3">
-      <c r="A176" s="25"/>
+      <c r="A176" s="27"/>
       <c r="B176" s="28"/>
       <c r="C176" s="28"/>
     </row>
@@ -2084,31 +2148,31 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="25"/>
-      <c r="B178" s="29"/>
+      <c r="B178" s="28"/>
       <c r="C178" s="28"/>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="25"/>
-      <c r="B179" s="28"/>
+      <c r="B179" s="29"/>
       <c r="C179" s="28"/>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="25"/>
-      <c r="B180" s="28"/>
+      <c r="B180" s="29"/>
       <c r="C180" s="28"/>
     </row>
     <row r="181" spans="1:3">
-      <c r="A181" s="27"/>
+      <c r="A181" s="25"/>
       <c r="B181" s="28"/>
       <c r="C181" s="28"/>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="25"/>
-      <c r="B182" s="29"/>
+      <c r="B182" s="28"/>
       <c r="C182" s="28"/>
     </row>
     <row r="183" spans="1:3">
-      <c r="A183" s="25"/>
+      <c r="A183" s="27"/>
       <c r="B183" s="28"/>
       <c r="C183" s="28"/>
     </row>
@@ -2119,31 +2183,31 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="25"/>
-      <c r="B185" s="29"/>
+      <c r="B185" s="28"/>
       <c r="C185" s="28"/>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="25"/>
-      <c r="B186" s="28"/>
+      <c r="B186" s="29"/>
       <c r="C186" s="28"/>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="25"/>
-      <c r="B187" s="28"/>
+      <c r="B187" s="29"/>
       <c r="C187" s="28"/>
     </row>
     <row r="188" spans="1:3">
-      <c r="A188" s="27"/>
+      <c r="A188" s="25"/>
       <c r="B188" s="28"/>
       <c r="C188" s="28"/>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="25"/>
-      <c r="B189" s="29"/>
+      <c r="B189" s="28"/>
       <c r="C189" s="28"/>
     </row>
     <row r="190" spans="1:3">
-      <c r="A190" s="25"/>
+      <c r="A190" s="27"/>
       <c r="B190" s="28"/>
       <c r="C190" s="28"/>
     </row>
@@ -2154,31 +2218,31 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="25"/>
-      <c r="B192" s="29"/>
+      <c r="B192" s="28"/>
       <c r="C192" s="28"/>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="25"/>
-      <c r="B193" s="28"/>
+      <c r="B193" s="29"/>
       <c r="C193" s="28"/>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="25"/>
-      <c r="B194" s="28"/>
+      <c r="B194" s="29"/>
       <c r="C194" s="28"/>
     </row>
     <row r="195" spans="1:3">
-      <c r="A195" s="27"/>
+      <c r="A195" s="25"/>
       <c r="B195" s="28"/>
       <c r="C195" s="28"/>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="25"/>
-      <c r="B196" s="29"/>
+      <c r="B196" s="28"/>
       <c r="C196" s="28"/>
     </row>
     <row r="197" spans="1:3">
-      <c r="A197" s="25"/>
+      <c r="A197" s="27"/>
       <c r="B197" s="28"/>
       <c r="C197" s="28"/>
     </row>
@@ -2189,31 +2253,31 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="25"/>
-      <c r="B199" s="29"/>
+      <c r="B199" s="28"/>
       <c r="C199" s="28"/>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="25"/>
-      <c r="B200" s="28"/>
+      <c r="B200" s="29"/>
       <c r="C200" s="28"/>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="25"/>
-      <c r="B201" s="28"/>
+      <c r="B201" s="29"/>
       <c r="C201" s="28"/>
     </row>
     <row r="202" spans="1:3">
-      <c r="A202" s="27"/>
+      <c r="A202" s="25"/>
       <c r="B202" s="28"/>
       <c r="C202" s="28"/>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="25"/>
-      <c r="B203" s="29"/>
+      <c r="B203" s="28"/>
       <c r="C203" s="28"/>
     </row>
     <row r="204" spans="1:3">
-      <c r="A204" s="25"/>
+      <c r="A204" s="27"/>
       <c r="B204" s="28"/>
       <c r="C204" s="28"/>
     </row>
@@ -2224,31 +2288,31 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="25"/>
-      <c r="B206" s="29"/>
+      <c r="B206" s="28"/>
       <c r="C206" s="28"/>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="25"/>
-      <c r="B207" s="28"/>
+      <c r="B207" s="29"/>
       <c r="C207" s="28"/>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="25"/>
-      <c r="B208" s="28"/>
+      <c r="B208" s="29"/>
       <c r="C208" s="28"/>
     </row>
     <row r="209" spans="1:3">
-      <c r="A209" s="27"/>
+      <c r="A209" s="25"/>
       <c r="B209" s="28"/>
       <c r="C209" s="28"/>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="25"/>
-      <c r="B210" s="29"/>
+      <c r="B210" s="28"/>
       <c r="C210" s="28"/>
     </row>
     <row r="211" spans="1:3">
-      <c r="A211" s="25"/>
+      <c r="A211" s="27"/>
       <c r="B211" s="28"/>
       <c r="C211" s="28"/>
     </row>
@@ -2259,17 +2323,17 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="25"/>
-      <c r="B213" s="29"/>
+      <c r="B213" s="28"/>
       <c r="C213" s="28"/>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="25"/>
-      <c r="B214" s="28"/>
+      <c r="B214" s="29"/>
       <c r="C214" s="28"/>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="25"/>
-      <c r="B215" s="28"/>
+      <c r="B215" s="29"/>
       <c r="C215" s="28"/>
     </row>
     <row r="216" spans="1:3">
@@ -2996,6 +3060,16 @@
       <c r="A360" s="25"/>
       <c r="B360" s="28"/>
       <c r="C360" s="28"/>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361" s="25"/>
+      <c r="B361" s="28"/>
+      <c r="C361" s="28"/>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" s="25"/>
+      <c r="B362" s="28"/>
+      <c r="C362" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>

--- a/weekly/要做的事.xlsx
+++ b/weekly/要做的事.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="68">
   <si>
     <t>完成情况%</t>
   </si>
@@ -226,9 +226,6 @@
     <t>待了解网络：Resnet、faster R-CNN、GoogLeNet、VGG</t>
   </si>
   <si>
-    <t>IMU+slam：kivs、nis</t>
-  </si>
-  <si>
     <t>KF、EKF</t>
   </si>
   <si>
@@ -402,7 +399,51 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>六级计划（12.14，15-17：25）：每天花一小时（半小时听力半小时其他）学习英语，重点关注比较薄弱的地方（主要是听力）；闲余时间用百词斩刷刷单词；最后一个月练习写作，每天写一篇，背范文。</t>
+    <t>搭好平台实现slam后，重点关注paper_method中总结的有关机器人和slam的文章</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>在Ubuntu上编写usb程序根据通信协议实现功能</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载驱动器win10调试软件，开环控制使驱动器输出电压（先不能接电机），阅读相关文件</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>导航</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>导航路径转电机驱动（差速）</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>树莓派</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>视觉slam（orb-slam2）、激光slam（cartographer）</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体设计（turtlebot3书和源码理解）</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>编程实现</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMU+slam：kivs、nis、vins</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>树莓派方案</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案1：用自己的</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -410,7 +451,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -528,6 +569,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -537,7 +585,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -560,13 +608,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -667,6 +726,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -946,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1134,8 +1202,8 @@
       <c r="A20" s="2">
         <v>16</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>21</v>
+      <c r="B20" s="36" t="s">
+        <v>65</v>
       </c>
       <c r="C20" s="7"/>
     </row>
@@ -1144,7 +1212,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="6"/>
     </row>
@@ -1153,7 +1221,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="21" customHeight="1">
@@ -1161,7 +1229,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="21" customHeight="1">
@@ -1169,7 +1237,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="21" customHeight="1">
@@ -1177,7 +1245,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="21" customHeight="1">
@@ -1186,13 +1254,13 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1200,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="5">
         <v>1</v>
@@ -1211,7 +1279,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C29" s="5">
         <v>1</v>
@@ -1221,9 +1289,6 @@
       <c r="A30" s="12">
         <v>3</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="C30" s="5"/>
     </row>
     <row r="31" spans="1:3" ht="16.5">
@@ -1231,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" s="5"/>
     </row>
@@ -1240,7 +1305,7 @@
         <v>5</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32" s="6"/>
     </row>
@@ -1251,27 +1316,21 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B34" s="30"/>
       <c r="C34" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="12">
         <v>1</v>
       </c>
-      <c r="B35" s="30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15">
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="12">
         <v>2</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="16.5">
@@ -1300,38 +1359,51 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="12">
         <v>1</v>
       </c>
-      <c r="B42" s="7"/>
-      <c r="C42" s="5"/>
+      <c r="B42" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:3" ht="20.25">
       <c r="A43" s="12">
         <v>2</v>
       </c>
-      <c r="B43" s="18"/>
+      <c r="B43" s="18" t="s">
+        <v>57</v>
+      </c>
       <c r="C43" s="5"/>
     </row>
     <row r="44" spans="1:3" ht="15">
       <c r="A44" s="12">
         <v>3</v>
       </c>
-      <c r="B44" s="14"/>
+      <c r="B44" s="17" t="s">
+        <v>54</v>
+      </c>
       <c r="C44" s="5"/>
     </row>
     <row r="45" spans="1:3" ht="33.75" customHeight="1">
       <c r="A45" s="12">
         <v>4</v>
       </c>
-      <c r="B45" s="15"/>
+      <c r="B45" s="30" t="s">
+        <v>55</v>
+      </c>
       <c r="C45" s="5"/>
     </row>
     <row r="46" spans="1:3">
@@ -1346,45 +1418,58 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B48" s="15"/>
+        <v>30</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>61</v>
+      </c>
       <c r="C48" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="12">
         <v>1</v>
       </c>
-      <c r="B49" s="7"/>
+      <c r="B49" s="33" t="s">
+        <v>62</v>
+      </c>
       <c r="C49" s="5"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="12">
         <v>2</v>
       </c>
+      <c r="B50" s="35" t="s">
+        <v>59</v>
+      </c>
       <c r="C50" s="5"/>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="12">
         <v>3</v>
       </c>
-      <c r="B51" s="7"/>
+      <c r="B51" s="33" t="s">
+        <v>60</v>
+      </c>
       <c r="C51" s="5"/>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="12">
         <v>4</v>
       </c>
-      <c r="B52" s="19"/>
+      <c r="B52" s="35" t="s">
+        <v>63</v>
+      </c>
       <c r="C52" s="5"/>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="12">
         <v>5</v>
       </c>
-      <c r="B53" s="20"/>
+      <c r="B53" s="35" t="s">
+        <v>64</v>
+      </c>
       <c r="C53" s="7"/>
     </row>
     <row r="54" spans="1:3">
@@ -1392,39 +1477,43 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B55" s="20"/>
+        <v>31</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>66</v>
+      </c>
       <c r="C55" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="12">
         <v>1</v>
       </c>
-      <c r="B56" s="20"/>
+      <c r="B56" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="C56" s="6"/>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="12">
         <v>2</v>
       </c>
-      <c r="B57" s="21"/>
+      <c r="B57" s="34"/>
       <c r="C57" s="5"/>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="12">
         <v>3</v>
       </c>
-      <c r="B58" s="21"/>
+      <c r="B58" s="34"/>
       <c r="C58" s="5"/>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="12">
         <v>4</v>
       </c>
-      <c r="B59" s="21"/>
+      <c r="B59" s="34"/>
       <c r="C59" s="5"/>
     </row>
     <row r="60" spans="1:3">
@@ -1436,13 +1525,13 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B62" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B62" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="C62" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1482,13 +1571,13 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1528,13 +1617,13 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="16.5">
@@ -1574,13 +1663,13 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="16.5">
@@ -1620,13 +1709,13 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="16.5">
@@ -1666,13 +1755,13 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="16.5">
@@ -1712,13 +1801,13 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B104" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B104" s="15" t="s">
-        <v>41</v>
-      </c>
       <c r="C104" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1757,13 +1846,13 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1798,10 +1887,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1840,13 +1929,13 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1881,10 +1970,10 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1919,13 +2008,13 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1965,13 +2054,13 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2011,13 +2100,13 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2057,13 +2146,13 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="163" spans="1:3">

--- a/weekly/要做的事.xlsx
+++ b/weekly/要做的事.xlsx
@@ -1014,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1214,7 +1214,9 @@
       <c r="B21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="6"/>
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="21" customHeight="1">
       <c r="A22" s="2">
@@ -1289,7 +1291,9 @@
       <c r="A30" s="12">
         <v>3</v>
       </c>
-      <c r="C30" s="5"/>
+      <c r="C30" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:3" ht="16.5">
       <c r="A31" s="12">
@@ -1386,7 +1390,9 @@
       <c r="B43" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="5"/>
+      <c r="C43" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:3" ht="15">
       <c r="A44" s="12">

--- a/weekly/要做的事.xlsx
+++ b/weekly/要做的事.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\postgraduate\summary\weekly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1a_person\postgraduate\summary\weekly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="73">
   <si>
     <t>完成情况%</t>
   </si>
@@ -31,9 +31,6 @@
   </si>
   <si>
     <t>次要任务</t>
-  </si>
-  <si>
-    <t>注意每周或2周看一篇不太相关的论文，了解其他slam相关知识。以ORB-SLAM2为参考，将代码移植到树莓派，看计算机视觉中的多视角几何、概率机器人、机器人学中的状态估计，注意方程的求解方法。 掌握SLAM视觉几何计算方法、图像处理原理，包括线性方程求解方法等，通过各个方向主流开源程序加以理解：基于特征（ORB-SLAM2）-单目+IMU（okvis）-半稠密（LSD-SLAM）-稠密-深度学习</t>
   </si>
   <si>
     <t>具体相关任务</t>
@@ -435,15 +432,64 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>IMU+slam：kivs、nis、vins</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>树莓派方案</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>方案1：用自己的</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>首先介绍ros和turtlebot3，然后介绍从slam、导航等几个重要部分，重点突出视觉slam，加上深度学习</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢泉调研报告：两轮机器人调研报告，顺便自己对所有工作做一些总结</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>过年回家对这两年学习总结进行回顾整理发布到C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SDN，注意代码和总结中是否存在侵权问题</t>
+    </r>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMU+slam：kivs、nis、vins、MSCKF-SLAM（EKF-slam改进）</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>注意每周或2周看一篇不太相关的论文，了解其他slam相关知识。以ORB-SLAM2为参考，将代码移植到树莓派，看计算机视觉中的多视角几何、概率机器人、机器人学中的状态估计，注意方程的求解方法。 掌握SLAM视觉几何计算方法、图像处理原理，包括线性方程求解方法等，通过各个方向主流开源程序加以理解：基于特征（ORB-SLAM2）-单目+IMU（okvis）-半稠密（LSD-SLAM）-稠密-深度学习。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注意手推重要计算过程和手撕代码</t>
+    </r>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>对总结进行提炼，找出难点和自己总结点，最后保持两个版本</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>从整体架构进行整合，像写书一样</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -1014,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1044,13 +1090,13 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
+      <c r="B3" s="36" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45.75" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2"/>
     </row>
@@ -1059,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="5"/>
     </row>
@@ -1068,7 +1114,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1076,7 +1122,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1084,7 +1130,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="6"/>
     </row>
@@ -1093,7 +1139,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="5">
         <v>0.7</v>
@@ -1104,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="5">
         <v>0.3</v>
@@ -1115,7 +1161,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="6">
         <v>0.1</v>
@@ -1126,7 +1172,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -1137,7 +1183,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="6">
         <v>1</v>
@@ -1148,7 +1194,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
@@ -1159,7 +1205,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="5"/>
     </row>
@@ -1168,7 +1214,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="5"/>
     </row>
@@ -1177,7 +1223,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="5"/>
     </row>
@@ -1186,7 +1232,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="7"/>
     </row>
@@ -1195,7 +1241,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1203,7 +1249,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C20" s="7"/>
     </row>
@@ -1212,7 +1258,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="5">
         <v>1</v>
@@ -1223,7 +1269,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="21" customHeight="1">
@@ -1231,7 +1277,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="21" customHeight="1">
@@ -1239,7 +1285,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="21" customHeight="1">
@@ -1247,7 +1293,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="21" customHeight="1">
@@ -1256,13 +1302,13 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1270,7 +1316,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="5">
         <v>1</v>
@@ -1281,7 +1327,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" s="5">
         <v>1</v>
@@ -1300,7 +1346,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31" s="5"/>
     </row>
@@ -1309,7 +1355,7 @@
         <v>5</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="6"/>
     </row>
@@ -1320,11 +1366,11 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B34" s="30"/>
       <c r="C34" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1363,13 +1409,13 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1377,7 +1423,7 @@
         <v>1</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C42" s="5">
         <v>1</v>
@@ -1388,7 +1434,7 @@
         <v>2</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="5">
         <v>1</v>
@@ -1399,7 +1445,7 @@
         <v>3</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C44" s="5"/>
     </row>
@@ -1408,7 +1454,7 @@
         <v>4</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C45" s="5"/>
     </row>
@@ -1424,13 +1470,13 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1438,7 +1484,7 @@
         <v>1</v>
       </c>
       <c r="B49" s="33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C49" s="5"/>
     </row>
@@ -1447,7 +1493,7 @@
         <v>2</v>
       </c>
       <c r="B50" s="35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C50" s="5"/>
     </row>
@@ -1456,7 +1502,7 @@
         <v>3</v>
       </c>
       <c r="B51" s="33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C51" s="5"/>
     </row>
@@ -1465,7 +1511,7 @@
         <v>4</v>
       </c>
       <c r="B52" s="35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C52" s="5"/>
     </row>
@@ -1474,7 +1520,7 @@
         <v>5</v>
       </c>
       <c r="B53" s="35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C53" s="7"/>
     </row>
@@ -1483,13 +1529,13 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1497,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C56" s="6"/>
     </row>
@@ -1531,20 +1577,22 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="B62" s="33" t="s">
+        <v>67</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="12">
         <v>1</v>
       </c>
-      <c r="B63" s="15"/>
+      <c r="B63" s="36" t="s">
+        <v>66</v>
+      </c>
       <c r="C63" s="5"/>
     </row>
     <row r="64" spans="1:3" ht="16.5">
@@ -1577,27 +1625,31 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B69" s="7" t="s">
         <v>33</v>
       </c>
+      <c r="B69" s="33" t="s">
+        <v>68</v>
+      </c>
       <c r="C69" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="12">
         <v>1</v>
       </c>
-      <c r="B70" s="21"/>
+      <c r="B70" s="34" t="s">
+        <v>71</v>
+      </c>
       <c r="C70" s="5"/>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="12">
         <v>2</v>
       </c>
-      <c r="B71" s="21"/>
+      <c r="B71" s="34" t="s">
+        <v>72</v>
+      </c>
       <c r="C71" s="5"/>
     </row>
     <row r="72" spans="1:3">
@@ -1623,13 +1675,13 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="16.5">
@@ -1669,13 +1721,13 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="16.5">
@@ -1715,13 +1767,13 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="16.5">
@@ -1761,13 +1813,13 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="16.5">
@@ -1807,13 +1859,13 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B104" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B104" s="15" t="s">
-        <v>40</v>
-      </c>
       <c r="C104" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1852,13 +1904,13 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1893,10 +1945,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1935,13 +1987,13 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1976,10 +2028,10 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2014,13 +2066,13 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2060,13 +2112,13 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2106,13 +2158,13 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2152,13 +2204,13 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="163" spans="1:3">

--- a/weekly/要做的事.xlsx
+++ b/weekly/要做的事.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1a_person\postgraduate\summary\weekly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\postgraduate\summary\weekly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -465,10 +465,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>IMU+slam：kivs、nis、vins、MSCKF-SLAM（EKF-slam改进）</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>注意每周或2周看一篇不太相关的论文，了解其他slam相关知识。以ORB-SLAM2为参考，将代码移植到树莓派，看计算机视觉中的多视角几何、概率机器人、机器人学中的状态估计，注意方程的求解方法。 掌握SLAM视觉几何计算方法、图像处理原理，包括线性方程求解方法等，通过各个方向主流开源程序加以理解：基于特征（ORB-SLAM2）-单目+IMU（okvis）-半稠密（LSD-SLAM）-稠密-深度学习。</t>
     </r>
@@ -490,6 +486,10 @@
   </si>
   <si>
     <t>从整体架构进行整合，像写书一样</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMU+slam：okivs、nis、vins、MSCKF-SLAM（EKF-slam改进）</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -1060,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1091,7 +1091,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45.75" customHeight="1">
@@ -1249,7 +1249,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C20" s="7"/>
     </row>
@@ -1639,7 +1639,7 @@
         <v>1</v>
       </c>
       <c r="B70" s="34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C70" s="5"/>
     </row>
@@ -1648,7 +1648,7 @@
         <v>2</v>
       </c>
       <c r="B71" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C71" s="5"/>
     </row>

--- a/weekly/要做的事.xlsx
+++ b/weekly/要做的事.xlsx
@@ -25,9 +25,6 @@
   </si>
   <si>
     <t>近期主要任务</t>
-  </si>
-  <si>
-    <t>以CVPR为调研对象，询问老师，查资料，网上问，考察深度学习和slam结合的可行性，确定方向后开始研究细分方向，直到出论文。确定方向后买电脑</t>
   </si>
   <si>
     <t>次要任务</t>
@@ -492,6 +489,10 @@
     <t>IMU+slam：okivs、nis、vins、MSCKF-SLAM（EKF-slam改进）</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
+  <si>
+    <t>以CVPR为调研对象，询问老师，查资料，网上问，考察深度学习和slam结合的可行性，确定方向后开始研究细分方向，直到出论文。确定方向后买电脑。激光SLAM是目前比较成熟的定位导航方案，视觉SLAM是未来研究的主流方向。先研究视觉SLAM方向，出论文后，若工作则学习slam和导航，决定读博则继续研究视觉SLAM</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -509,18 +510,21 @@
       <sz val="10"/>
       <color rgb="FF222222"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -534,6 +538,7 @@
       <sz val="13"/>
       <color rgb="FF222222"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1060,8 +1065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1083,20 +1088,20 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="69" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45.75" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2"/>
     </row>
@@ -1105,7 +1110,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="5"/>
     </row>
@@ -1114,7 +1119,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1122,7 +1127,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1130,7 +1135,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="6"/>
     </row>
@@ -1139,7 +1144,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="5">
         <v>0.7</v>
@@ -1150,7 +1155,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="5">
         <v>0.3</v>
@@ -1161,7 +1166,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="6">
         <v>0.1</v>
@@ -1172,7 +1177,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -1183,7 +1188,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="6">
         <v>1</v>
@@ -1194,7 +1199,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
@@ -1205,7 +1210,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="5"/>
     </row>
@@ -1214,7 +1219,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="5"/>
     </row>
@@ -1223,7 +1228,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="5"/>
     </row>
@@ -1232,7 +1237,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7"/>
     </row>
@@ -1241,7 +1246,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1249,7 +1254,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C20" s="7"/>
     </row>
@@ -1258,7 +1263,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="5">
         <v>1</v>
@@ -1269,7 +1274,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="21" customHeight="1">
@@ -1277,7 +1282,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="21" customHeight="1">
@@ -1285,7 +1290,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="21" customHeight="1">
@@ -1293,7 +1298,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="21" customHeight="1">
@@ -1302,13 +1307,13 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1316,7 +1321,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" s="5">
         <v>1</v>
@@ -1327,7 +1332,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" s="5">
         <v>1</v>
@@ -1346,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C31" s="5"/>
     </row>
@@ -1355,7 +1360,7 @@
         <v>5</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C32" s="6"/>
     </row>
@@ -1366,11 +1371,11 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B34" s="30"/>
       <c r="C34" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1409,13 +1414,13 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1423,7 +1428,7 @@
         <v>1</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C42" s="5">
         <v>1</v>
@@ -1434,7 +1439,7 @@
         <v>2</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="5">
         <v>1</v>
@@ -1445,7 +1450,7 @@
         <v>3</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C44" s="5"/>
     </row>
@@ -1454,7 +1459,7 @@
         <v>4</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C45" s="5"/>
     </row>
@@ -1470,13 +1475,13 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1484,7 +1489,7 @@
         <v>1</v>
       </c>
       <c r="B49" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C49" s="5"/>
     </row>
@@ -1493,7 +1498,7 @@
         <v>2</v>
       </c>
       <c r="B50" s="35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C50" s="5"/>
     </row>
@@ -1502,7 +1507,7 @@
         <v>3</v>
       </c>
       <c r="B51" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C51" s="5"/>
     </row>
@@ -1511,7 +1516,7 @@
         <v>4</v>
       </c>
       <c r="B52" s="35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C52" s="5"/>
     </row>
@@ -1520,7 +1525,7 @@
         <v>5</v>
       </c>
       <c r="B53" s="35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C53" s="7"/>
     </row>
@@ -1529,13 +1534,13 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1543,7 +1548,7 @@
         <v>1</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C56" s="6"/>
     </row>
@@ -1577,13 +1582,13 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B62" s="33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1591,7 +1596,7 @@
         <v>1</v>
       </c>
       <c r="B63" s="36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C63" s="5"/>
     </row>
@@ -1625,13 +1630,13 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B69" s="33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1639,7 +1644,7 @@
         <v>1</v>
       </c>
       <c r="B70" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C70" s="5"/>
     </row>
@@ -1648,7 +1653,7 @@
         <v>2</v>
       </c>
       <c r="B71" s="34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C71" s="5"/>
     </row>
@@ -1675,13 +1680,13 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="16.5">
@@ -1721,13 +1726,13 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="16.5">
@@ -1767,13 +1772,13 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="16.5">
@@ -1813,13 +1818,13 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="16.5">
@@ -1859,13 +1864,13 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B104" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B104" s="15" t="s">
-        <v>39</v>
-      </c>
       <c r="C104" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1904,13 +1909,13 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1945,10 +1950,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1987,13 +1992,13 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2028,10 +2033,10 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2066,13 +2071,13 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2112,13 +2117,13 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2158,13 +2163,13 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2204,13 +2209,13 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="163" spans="1:3">

--- a/weekly/要做的事.xlsx
+++ b/weekly/要做的事.xlsx
@@ -1065,8 +1065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C362"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1095,7 +1095,7 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="2" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1256,7 +1256,9 @@
       <c r="B20" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="7"/>
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
@@ -1452,7 +1454,9 @@
       <c r="B44" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="5"/>
+      <c r="C44" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:3" ht="33.75" customHeight="1">
       <c r="A45" s="12">
@@ -1461,7 +1465,9 @@
       <c r="B45" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="5"/>
+      <c r="C45" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="12">
@@ -1491,7 +1497,9 @@
       <c r="B49" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="C49" s="5"/>
+      <c r="C49" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="12">
@@ -1500,7 +1508,9 @@
       <c r="B50" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="C50" s="5"/>
+      <c r="C50" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="12">
@@ -1509,7 +1519,9 @@
       <c r="B51" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="C51" s="5"/>
+      <c r="C51" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="12">
@@ -1518,7 +1530,9 @@
       <c r="B52" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="C52" s="5"/>
+      <c r="C52" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="12">
@@ -1550,7 +1564,9 @@
       <c r="B56" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C56" s="6"/>
+      <c r="C56" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="12">
@@ -1598,7 +1614,9 @@
       <c r="B63" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="5"/>
+      <c r="C63" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="64" spans="1:3" ht="16.5">
       <c r="A64" s="12">

--- a/weekly/要做的事.xlsx
+++ b/weekly/要做的事.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="82">
   <si>
     <t>完成情况%</t>
   </si>
@@ -462,6 +462,54 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
+    <t>对总结进行提炼，找出难点和自己总结点，最后保持两个版本</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>从整体架构进行整合，像写书一样</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMU+slam：okivs、nis、vins、MSCKF-SLAM（EKF-slam改进）</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>以CVPR为调研对象，询问老师，查资料，网上问，考察深度学习和slam结合的可行性，确定方向后开始研究细分方向，直到出论文。确定方向后买电脑。激光SLAM是目前比较成熟的定位导航方案，视觉SLAM是未来研究的主流方向。先研究视觉SLAM方向，出论文后，若工作则学习slam和导航，决定读博则继续研究视觉SLAM</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>找个比赛打打</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方向总结各方向进行调研，总结优缺点，适用场景等</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>写开题报告</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备暑假实习</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>看完orbslam2代码，并上机跑，搞透彻，争取把每部分弄懂</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择方向和调研，各科考试放在首位</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>按键程序，可以按圆弧转，测试小海龟半径是不是v/w，考虑整体设计，保存图片之类方法，首先考虑功能包，再考虑自己写代码</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>看论文总结时写出别人的创新点</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>注意每周或2周看一篇不太相关的论文，了解其他slam相关知识。以ORB-SLAM2为参考，将代码移植到树莓派，看计算机视觉中的多视角几何、概率机器人、机器人学中的状态估计，注意方程的求解方法。 掌握SLAM视觉几何计算方法、图像处理原理，包括线性方程求解方法等，通过各个方向主流开源程序加以理解：基于特征（ORB-SLAM2）-单目+IMU（okvis）-半稠密（LSD-SLAM）-稠密-深度学习。</t>
     </r>
@@ -478,19 +526,7 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>对总结进行提炼，找出难点和自己总结点，最后保持两个版本</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>从整体架构进行整合，像写书一样</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>IMU+slam：okivs、nis、vins、MSCKF-SLAM（EKF-slam改进）</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>以CVPR为调研对象，询问老师，查资料，网上问，考察深度学习和slam结合的可行性，确定方向后开始研究细分方向，直到出论文。确定方向后买电脑。激光SLAM是目前比较成熟的定位导航方案，视觉SLAM是未来研究的主流方向。先研究视觉SLAM方向，出论文后，若工作则学习slam和导航，决定读博则继续研究视觉SLAM</t>
+    <t>这学期到下学期先做传统的，熟悉常见框架，解决机器人问题，评估出论文的可行性，提高代码能力，同时花部分精力关注其他方向，也为明年暑假实习（留意大厂实习）做准备，直到明年暑假去实习完；暑假实习完后选个合适方向准备出论文和考虑是否读博</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -676,7 +712,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -787,6 +823,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1063,10 +1102,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C362"/>
+  <dimension ref="A1:C364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1088,7 +1127,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="69" customHeight="1">
@@ -1096,14 +1135,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
@@ -1254,7 +1295,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
@@ -1304,37 +1345,33 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="21" customHeight="1">
-      <c r="A26" s="9"/>
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="10" t="s">
+      <c r="A26" s="8">
         <v>22</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B26" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="21" customHeight="1">
+      <c r="A27" s="9"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C28" s="7" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="12">
-        <v>1</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="5">
-        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="12">
-        <v>2</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>47</v>
+        <v>1</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C29" s="5">
         <v>1</v>
@@ -1342,171 +1379,171 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="12">
+        <v>2</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="12">
         <v>3</v>
       </c>
-      <c r="C30" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="16.5">
-      <c r="A31" s="12">
+      <c r="C31" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16.5">
+      <c r="A32" s="12">
         <v>4</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B32" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:3" ht="15">
-      <c r="A32" s="12">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:3" ht="15">
+      <c r="A33" s="12">
         <v>5</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B33" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="6"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="12"/>
-      <c r="B33" s="15"/>
       <c r="C33" s="6"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="12"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="7" t="s">
+      <c r="B35" s="30"/>
+      <c r="C35" s="7" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="12">
-        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="16.5">
-      <c r="A37" s="12">
+    <row r="38" spans="1:3" ht="16.5">
+      <c r="A38" s="12">
         <v>3</v>
       </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="5"/>
-    </row>
-    <row r="38" spans="1:3" ht="15">
-      <c r="A38" s="12">
+      <c r="B38" s="16"/>
+      <c r="C38" s="5"/>
+    </row>
+    <row r="39" spans="1:3" ht="15">
+      <c r="A39" s="12">
         <v>4</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="5"/>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="12">
+      <c r="B39" s="14"/>
+      <c r="C39" s="5"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="12">
         <v>5</v>
       </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="6"/>
-    </row>
-    <row r="40" spans="1:3">
       <c r="B40" s="3"/>
+      <c r="C40" s="6"/>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="10" t="s">
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B42" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C42" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="12">
-        <v>1</v>
-      </c>
-      <c r="B42" s="33" t="s">
+    <row r="43" spans="1:3">
+      <c r="A43" s="12">
+        <v>1</v>
+      </c>
+      <c r="B43" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="20.25">
-      <c r="A43" s="12">
+      <c r="C43" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="20.25">
+      <c r="A44" s="12">
         <v>2</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B44" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C43" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15">
-      <c r="A44" s="12">
+      <c r="C44" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15">
+      <c r="A45" s="12">
         <v>3</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B45" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="33.75" customHeight="1">
-      <c r="A45" s="12">
+      <c r="C45" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="33.75" customHeight="1">
+      <c r="A46" s="12">
         <v>4</v>
       </c>
-      <c r="B45" s="30" t="s">
+      <c r="B46" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="12">
+      <c r="C46" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="12">
         <v>5</v>
       </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="5"/>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="B47" s="2"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="5"/>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="10" t="s">
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="B49" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C49" s="7" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="12">
-        <v>1</v>
-      </c>
-      <c r="B49" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="C49" s="5">
-        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="12">
-        <v>2</v>
-      </c>
-      <c r="B50" s="35" t="s">
-        <v>57</v>
+        <v>1</v>
+      </c>
+      <c r="B50" s="33" t="s">
+        <v>60</v>
       </c>
       <c r="C50" s="5">
         <v>1</v>
@@ -1514,10 +1551,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="12">
-        <v>3</v>
-      </c>
-      <c r="B51" s="33" t="s">
-        <v>58</v>
+        <v>2</v>
+      </c>
+      <c r="B51" s="35" t="s">
+        <v>57</v>
       </c>
       <c r="C51" s="5">
         <v>1</v>
@@ -1525,10 +1562,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="12">
-        <v>4</v>
-      </c>
-      <c r="B52" s="35" t="s">
-        <v>61</v>
+        <v>3</v>
+      </c>
+      <c r="B52" s="33" t="s">
+        <v>58</v>
       </c>
       <c r="C52" s="5">
         <v>1</v>
@@ -1536,753 +1573,773 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="12">
+        <v>4</v>
+      </c>
+      <c r="B53" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="12">
         <v>5</v>
       </c>
-      <c r="B53" s="35" t="s">
+      <c r="B54" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="C53" s="7"/>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="B54" s="20"/>
+      <c r="C54" s="7"/>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="10" t="s">
+      <c r="B55" s="20"/>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B55" s="20" t="s">
+      <c r="B56" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C56" s="7" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="12">
-        <v>1</v>
-      </c>
-      <c r="B56" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C56" s="5">
-        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="12">
-        <v>2</v>
-      </c>
-      <c r="B57" s="34"/>
-      <c r="C57" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B58" s="34"/>
       <c r="C58" s="5"/>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B59" s="34"/>
       <c r="C59" s="5"/>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="12">
+        <v>4</v>
+      </c>
+      <c r="B60" s="34"/>
+      <c r="C60" s="5"/>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="12">
         <v>5</v>
       </c>
-      <c r="B60" s="21"/>
-      <c r="C60" s="5"/>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="10" t="s">
+      <c r="B61" s="21"/>
+      <c r="C61" s="5"/>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B62" s="33" t="s">
+      <c r="B63" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C63" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="12">
-        <v>1</v>
-      </c>
-      <c r="B63" s="36" t="s">
+    <row r="64" spans="1:3">
+      <c r="A64" s="12">
+        <v>1</v>
+      </c>
+      <c r="B64" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="16.5">
-      <c r="A64" s="12">
-        <v>2</v>
-      </c>
-      <c r="B64" s="22"/>
-      <c r="C64" s="7"/>
+      <c r="C64" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="65" spans="1:3" ht="16.5">
       <c r="A65" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B65" s="22"/>
-      <c r="C65" s="5"/>
+      <c r="C65" s="7"/>
     </row>
     <row r="66" spans="1:3" ht="16.5">
       <c r="A66" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B66" s="22"/>
       <c r="C66" s="5"/>
     </row>
     <row r="67" spans="1:3" ht="16.5">
       <c r="A67" s="12">
+        <v>4</v>
+      </c>
+      <c r="B67" s="22"/>
+      <c r="C67" s="5"/>
+    </row>
+    <row r="68" spans="1:3" ht="16.5">
+      <c r="A68" s="12">
         <v>5</v>
       </c>
-      <c r="B67" s="22"/>
-      <c r="C67" s="7"/>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="10" t="s">
+      <c r="B68" s="22"/>
+      <c r="C68" s="7"/>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B69" s="33" t="s">
+      <c r="B70" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C70" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="12">
-        <v>1</v>
-      </c>
-      <c r="B70" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="C70" s="5"/>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B71" s="34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C71" s="5"/>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="12">
-        <v>3</v>
-      </c>
-      <c r="B72" s="21"/>
+        <v>2</v>
+      </c>
+      <c r="B72" s="34" t="s">
+        <v>69</v>
+      </c>
       <c r="C72" s="5"/>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B73" s="21"/>
       <c r="C73" s="5"/>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B74" s="21"/>
       <c r="C74" s="5"/>
     </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="10" t="s">
+    <row r="75" spans="1:3">
+      <c r="A75" s="12">
+        <v>5</v>
+      </c>
+      <c r="B75" s="21"/>
+      <c r="C75" s="5"/>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B77" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="12">
+        <v>1</v>
+      </c>
+      <c r="B78" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C78" s="5"/>
+    </row>
+    <row r="79" spans="1:3" ht="15">
+      <c r="A79" s="12">
+        <v>2</v>
+      </c>
+      <c r="B79" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C79" s="5"/>
+    </row>
+    <row r="80" spans="1:3" ht="15">
+      <c r="A80" s="12">
+        <v>3</v>
+      </c>
+      <c r="B80" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C80" s="5"/>
+    </row>
+    <row r="81" spans="1:3" ht="15">
+      <c r="A81" s="12">
+        <v>4</v>
+      </c>
+      <c r="B81" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C81" s="5"/>
+    </row>
+    <row r="82" spans="1:3" ht="15">
+      <c r="A82" s="12">
+        <v>5</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C82" s="5"/>
+    </row>
+    <row r="83" spans="1:3" ht="15">
+      <c r="A83" s="25">
+        <v>6</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C83" s="37"/>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B85" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C85" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" ht="16.5">
-      <c r="A77" s="12">
-        <v>1</v>
-      </c>
-      <c r="B77" s="22"/>
-      <c r="C77" s="5"/>
-    </row>
-    <row r="78" spans="1:3" ht="16.5">
-      <c r="A78" s="12">
-        <v>2</v>
-      </c>
-      <c r="B78" s="22"/>
-      <c r="C78" s="5"/>
-    </row>
-    <row r="79" spans="1:3" ht="16.5">
-      <c r="A79" s="12">
-        <v>3</v>
-      </c>
-      <c r="B79" s="22"/>
-      <c r="C79" s="5"/>
-    </row>
-    <row r="80" spans="1:3" ht="16.5">
-      <c r="A80" s="12">
-        <v>4</v>
-      </c>
-      <c r="B80" s="22"/>
-      <c r="C80" s="5"/>
-    </row>
-    <row r="81" spans="1:3" ht="16.5">
-      <c r="A81" s="12">
-        <v>5</v>
-      </c>
-      <c r="B81" s="22"/>
-      <c r="C81" s="5"/>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="16.5">
-      <c r="A84" s="12">
-        <v>1</v>
-      </c>
-      <c r="B84" s="16"/>
-      <c r="C84" s="23"/>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="12">
-        <v>2</v>
-      </c>
-      <c r="B85" s="11"/>
-      <c r="C85" s="23"/>
     </row>
     <row r="86" spans="1:3" ht="16.5">
       <c r="A86" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B86" s="16"/>
       <c r="C86" s="23"/>
     </row>
-    <row r="87" spans="1:3" ht="16.5">
+    <row r="87" spans="1:3">
       <c r="A87" s="12">
-        <v>4</v>
-      </c>
-      <c r="B87" s="16"/>
+        <v>2</v>
+      </c>
+      <c r="B87" s="11"/>
       <c r="C87" s="23"/>
     </row>
     <row r="88" spans="1:3" ht="16.5">
       <c r="A88" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B88" s="16"/>
       <c r="C88" s="23"/>
     </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="10" t="s">
+    <row r="89" spans="1:3" ht="16.5">
+      <c r="A89" s="12">
+        <v>4</v>
+      </c>
+      <c r="B89" s="16"/>
+      <c r="C89" s="23"/>
+    </row>
+    <row r="90" spans="1:3" ht="16.5">
+      <c r="A90" s="12">
+        <v>5</v>
+      </c>
+      <c r="B90" s="16"/>
+      <c r="C90" s="23"/>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B92" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C92" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" ht="16.5">
-      <c r="A91" s="12">
-        <v>1</v>
-      </c>
-      <c r="B91" s="16"/>
-      <c r="C91" s="23"/>
-    </row>
-    <row r="92" spans="1:3" ht="16.5">
-      <c r="A92" s="12">
-        <v>2</v>
-      </c>
-      <c r="B92" s="16"/>
-      <c r="C92" s="23"/>
     </row>
     <row r="93" spans="1:3" ht="16.5">
       <c r="A93" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B93" s="16"/>
       <c r="C93" s="23"/>
     </row>
     <row r="94" spans="1:3" ht="16.5">
       <c r="A94" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B94" s="16"/>
       <c r="C94" s="23"/>
     </row>
     <row r="95" spans="1:3" ht="16.5">
       <c r="A95" s="12">
+        <v>3</v>
+      </c>
+      <c r="B95" s="16"/>
+      <c r="C95" s="23"/>
+    </row>
+    <row r="96" spans="1:3" ht="16.5">
+      <c r="A96" s="12">
+        <v>4</v>
+      </c>
+      <c r="B96" s="16"/>
+      <c r="C96" s="23"/>
+    </row>
+    <row r="97" spans="1:3" ht="16.5">
+      <c r="A97" s="12">
         <v>5</v>
       </c>
-      <c r="B95" s="13"/>
-      <c r="C95" s="23"/>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="10" t="s">
+      <c r="B97" s="13"/>
+      <c r="C97" s="23"/>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B99" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C97" s="7" t="s">
+      <c r="C99" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" ht="16.5">
-      <c r="A98" s="12">
-        <v>1</v>
-      </c>
-      <c r="B98" s="16"/>
-      <c r="C98" s="23"/>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="12">
-        <v>2</v>
-      </c>
-      <c r="B99" s="7"/>
-      <c r="C99" s="23"/>
     </row>
     <row r="100" spans="1:3" ht="16.5">
       <c r="A100" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B100" s="16"/>
       <c r="C100" s="23"/>
     </row>
-    <row r="101" spans="1:3" ht="16.5">
+    <row r="101" spans="1:3">
       <c r="A101" s="12">
-        <v>4</v>
-      </c>
-      <c r="B101" s="16"/>
+        <v>2</v>
+      </c>
+      <c r="B101" s="7"/>
       <c r="C101" s="23"/>
     </row>
     <row r="102" spans="1:3" ht="16.5">
       <c r="A102" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B102" s="16"/>
       <c r="C102" s="23"/>
     </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="10" t="s">
+    <row r="103" spans="1:3" ht="16.5">
+      <c r="A103" s="12">
+        <v>4</v>
+      </c>
+      <c r="B103" s="16"/>
+      <c r="C103" s="23"/>
+    </row>
+    <row r="104" spans="1:3" ht="16.5">
+      <c r="A104" s="12">
+        <v>5</v>
+      </c>
+      <c r="B104" s="16"/>
+      <c r="C104" s="23"/>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B104" s="15" t="s">
+      <c r="B106" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C104" s="7" t="s">
+      <c r="C106" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="12">
-        <v>1</v>
-      </c>
-      <c r="C105" s="23"/>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="12">
-        <v>2</v>
-      </c>
-      <c r="C106" s="23"/>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C107" s="23"/>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="12">
-        <v>4</v>
-      </c>
-      <c r="C108" s="24"/>
+        <v>2</v>
+      </c>
+      <c r="C108" s="23"/>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="12">
+        <v>3</v>
+      </c>
+      <c r="C109" s="23"/>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="12">
+        <v>4</v>
+      </c>
+      <c r="C110" s="24"/>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="12">
         <v>5</v>
       </c>
-      <c r="C109" s="23"/>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="25"/>
-      <c r="C110" s="26"/>
+      <c r="C111" s="23"/>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="10" t="s">
+      <c r="A112" s="25"/>
+      <c r="C112" s="26"/>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B112" s="7" t="s">
+      <c r="B114" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C112" s="7" t="s">
+      <c r="C114" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="12">
-        <v>1</v>
-      </c>
-      <c r="C113" s="7"/>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="12">
-        <v>2</v>
-      </c>
-      <c r="C114" s="23"/>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="12">
-        <v>3</v>
-      </c>
-      <c r="C115" s="23"/>
+        <v>1</v>
+      </c>
+      <c r="C115" s="7"/>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C116" s="23"/>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="12">
+        <v>3</v>
+      </c>
+      <c r="C117" s="23"/>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="12">
+        <v>4</v>
+      </c>
+      <c r="C118" s="23"/>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="12">
         <v>5</v>
       </c>
-      <c r="C117" s="23"/>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="10" t="s">
+      <c r="C119" s="23"/>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C119" s="7" t="s">
+      <c r="C121" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="12">
-        <v>1</v>
-      </c>
-      <c r="C120" s="7"/>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="12">
-        <v>2</v>
-      </c>
-      <c r="C121" s="7"/>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C122" s="7"/>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="12"/>
+      <c r="A123" s="12">
+        <v>2</v>
+      </c>
       <c r="C123" s="7"/>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="12">
+        <v>3</v>
+      </c>
+      <c r="C124" s="7"/>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="12"/>
+      <c r="C125" s="7"/>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="12">
         <v>4</v>
       </c>
-      <c r="C124" s="7"/>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="12">
+      <c r="C126" s="7"/>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="12">
         <v>5</v>
       </c>
-      <c r="C125" s="7"/>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="10" t="s">
+      <c r="C127" s="7"/>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B127" s="7" t="s">
+      <c r="B129" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C127" s="7" t="s">
+      <c r="C129" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="12">
-        <v>1</v>
-      </c>
-      <c r="C128" s="7"/>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="12">
-        <v>2</v>
-      </c>
-      <c r="C129" s="7"/>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C130" s="7"/>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C131" s="7"/>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="12">
+        <v>3</v>
+      </c>
+      <c r="C132" s="7"/>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="12">
+        <v>4</v>
+      </c>
+      <c r="C133" s="7"/>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="12">
         <v>5</v>
       </c>
-      <c r="C132" s="7"/>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="10" t="s">
+      <c r="C134" s="7"/>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C134" s="7" t="s">
+      <c r="C136" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="12">
-        <v>1</v>
-      </c>
-      <c r="C135" s="7"/>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="12">
-        <v>2</v>
-      </c>
-      <c r="C136" s="7"/>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C137" s="7"/>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C138" s="7"/>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="12">
+        <v>3</v>
+      </c>
+      <c r="C139" s="7"/>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="12">
+        <v>4</v>
+      </c>
+      <c r="C140" s="7"/>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="12">
         <v>5</v>
       </c>
-      <c r="C139" s="7"/>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" s="10" t="s">
+      <c r="C141" s="7"/>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B141" s="7" t="s">
+      <c r="B143" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C141" s="7" t="s">
+      <c r="C143" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" s="12">
-        <v>1</v>
-      </c>
-      <c r="B142" s="15"/>
-      <c r="C142" s="7"/>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" s="12">
-        <v>2</v>
-      </c>
-      <c r="B143" s="7"/>
-      <c r="C143" s="7"/>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B144" s="15"/>
       <c r="C144" s="7"/>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="12">
-        <v>4</v>
-      </c>
-      <c r="B145" s="15"/>
+        <v>2</v>
+      </c>
+      <c r="B145" s="7"/>
       <c r="C145" s="7"/>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="12">
+        <v>3</v>
+      </c>
+      <c r="B146" s="15"/>
+      <c r="C146" s="7"/>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="12">
+        <v>4</v>
+      </c>
+      <c r="B147" s="15"/>
+      <c r="C147" s="7"/>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="12">
         <v>5</v>
       </c>
-      <c r="B146" s="7"/>
-      <c r="C146" s="7"/>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" s="10" t="s">
+      <c r="B148" s="7"/>
+      <c r="C148" s="7"/>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B148" s="7" t="s">
+      <c r="B150" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C148" s="7" t="s">
+      <c r="C150" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" s="12">
-        <v>1</v>
-      </c>
-      <c r="B149" s="15"/>
-      <c r="C149" s="7"/>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" s="12">
-        <v>2</v>
-      </c>
-      <c r="B150" s="7"/>
-      <c r="C150" s="7"/>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B151" s="15"/>
       <c r="C151" s="7"/>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="12">
-        <v>4</v>
-      </c>
-      <c r="B152" s="15"/>
+        <v>2</v>
+      </c>
+      <c r="B152" s="7"/>
       <c r="C152" s="7"/>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="12">
+        <v>3</v>
+      </c>
+      <c r="B153" s="15"/>
+      <c r="C153" s="7"/>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="12">
+        <v>4</v>
+      </c>
+      <c r="B154" s="15"/>
+      <c r="C154" s="7"/>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="12">
         <v>5</v>
       </c>
-      <c r="B153" s="7"/>
-      <c r="C153" s="7"/>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" s="10" t="s">
+      <c r="B155" s="7"/>
+      <c r="C155" s="7"/>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B155" s="7" t="s">
+      <c r="B157" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C155" s="7" t="s">
+      <c r="C157" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" s="12">
-        <v>1</v>
-      </c>
-      <c r="B156" s="15"/>
-      <c r="C156" s="7"/>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157" s="12">
-        <v>2</v>
-      </c>
-      <c r="B157" s="7"/>
-      <c r="C157" s="7"/>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B158" s="15"/>
       <c r="C158" s="7"/>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="12">
-        <v>4</v>
-      </c>
-      <c r="B159" s="15"/>
+        <v>2</v>
+      </c>
+      <c r="B159" s="7"/>
       <c r="C159" s="7"/>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="12">
+        <v>3</v>
+      </c>
+      <c r="B160" s="15"/>
+      <c r="C160" s="7"/>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="12">
+        <v>4</v>
+      </c>
+      <c r="B161" s="15"/>
+      <c r="C161" s="7"/>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="12">
         <v>5</v>
       </c>
-      <c r="B160" s="7"/>
-      <c r="C160" s="7"/>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162" s="10" t="s">
+      <c r="B162" s="7"/>
+      <c r="C162" s="7"/>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B162" s="7" t="s">
+      <c r="B164" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C162" s="7" t="s">
+      <c r="C164" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163" s="12">
-        <v>1</v>
-      </c>
-      <c r="B163" s="15"/>
-      <c r="C163" s="7"/>
-    </row>
-    <row r="164" spans="1:3">
-      <c r="A164" s="12">
-        <v>2</v>
-      </c>
-      <c r="B164" s="7"/>
-      <c r="C164" s="7"/>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B165" s="15"/>
       <c r="C165" s="7"/>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="12">
-        <v>4</v>
-      </c>
-      <c r="B166" s="15"/>
+        <v>2</v>
+      </c>
+      <c r="B166" s="7"/>
       <c r="C166" s="7"/>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="12">
+        <v>3</v>
+      </c>
+      <c r="B167" s="15"/>
+      <c r="C167" s="7"/>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="12">
+        <v>4</v>
+      </c>
+      <c r="B168" s="15"/>
+      <c r="C168" s="7"/>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="12">
         <v>5</v>
       </c>
-      <c r="B167" s="7"/>
-      <c r="C167" s="7"/>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="A169" s="27"/>
-      <c r="B169" s="28"/>
-      <c r="C169" s="28"/>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="A170" s="25"/>
-      <c r="B170" s="29"/>
-      <c r="C170" s="28"/>
+      <c r="B169" s="7"/>
+      <c r="C169" s="7"/>
     </row>
     <row r="171" spans="1:3">
-      <c r="A171" s="25"/>
+      <c r="A171" s="27"/>
       <c r="B171" s="28"/>
       <c r="C171" s="28"/>
     </row>
@@ -2293,31 +2350,31 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="25"/>
-      <c r="B173" s="29"/>
+      <c r="B173" s="28"/>
       <c r="C173" s="28"/>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="25"/>
-      <c r="B174" s="28"/>
+      <c r="B174" s="29"/>
       <c r="C174" s="28"/>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="25"/>
-      <c r="B175" s="28"/>
+      <c r="B175" s="29"/>
       <c r="C175" s="28"/>
     </row>
     <row r="176" spans="1:3">
-      <c r="A176" s="27"/>
+      <c r="A176" s="25"/>
       <c r="B176" s="28"/>
       <c r="C176" s="28"/>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="25"/>
-      <c r="B177" s="29"/>
+      <c r="B177" s="28"/>
       <c r="C177" s="28"/>
     </row>
     <row r="178" spans="1:3">
-      <c r="A178" s="25"/>
+      <c r="A178" s="27"/>
       <c r="B178" s="28"/>
       <c r="C178" s="28"/>
     </row>
@@ -2328,31 +2385,31 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="25"/>
-      <c r="B180" s="29"/>
+      <c r="B180" s="28"/>
       <c r="C180" s="28"/>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="25"/>
-      <c r="B181" s="28"/>
+      <c r="B181" s="29"/>
       <c r="C181" s="28"/>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="25"/>
-      <c r="B182" s="28"/>
+      <c r="B182" s="29"/>
       <c r="C182" s="28"/>
     </row>
     <row r="183" spans="1:3">
-      <c r="A183" s="27"/>
+      <c r="A183" s="25"/>
       <c r="B183" s="28"/>
       <c r="C183" s="28"/>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="25"/>
-      <c r="B184" s="29"/>
+      <c r="B184" s="28"/>
       <c r="C184" s="28"/>
     </row>
     <row r="185" spans="1:3">
-      <c r="A185" s="25"/>
+      <c r="A185" s="27"/>
       <c r="B185" s="28"/>
       <c r="C185" s="28"/>
     </row>
@@ -2363,31 +2420,31 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="25"/>
-      <c r="B187" s="29"/>
+      <c r="B187" s="28"/>
       <c r="C187" s="28"/>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="25"/>
-      <c r="B188" s="28"/>
+      <c r="B188" s="29"/>
       <c r="C188" s="28"/>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="25"/>
-      <c r="B189" s="28"/>
+      <c r="B189" s="29"/>
       <c r="C189" s="28"/>
     </row>
     <row r="190" spans="1:3">
-      <c r="A190" s="27"/>
+      <c r="A190" s="25"/>
       <c r="B190" s="28"/>
       <c r="C190" s="28"/>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="25"/>
-      <c r="B191" s="29"/>
+      <c r="B191" s="28"/>
       <c r="C191" s="28"/>
     </row>
     <row r="192" spans="1:3">
-      <c r="A192" s="25"/>
+      <c r="A192" s="27"/>
       <c r="B192" s="28"/>
       <c r="C192" s="28"/>
     </row>
@@ -2398,31 +2455,31 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="25"/>
-      <c r="B194" s="29"/>
+      <c r="B194" s="28"/>
       <c r="C194" s="28"/>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="25"/>
-      <c r="B195" s="28"/>
+      <c r="B195" s="29"/>
       <c r="C195" s="28"/>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="25"/>
-      <c r="B196" s="28"/>
+      <c r="B196" s="29"/>
       <c r="C196" s="28"/>
     </row>
     <row r="197" spans="1:3">
-      <c r="A197" s="27"/>
+      <c r="A197" s="25"/>
       <c r="B197" s="28"/>
       <c r="C197" s="28"/>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="25"/>
-      <c r="B198" s="29"/>
+      <c r="B198" s="28"/>
       <c r="C198" s="28"/>
     </row>
     <row r="199" spans="1:3">
-      <c r="A199" s="25"/>
+      <c r="A199" s="27"/>
       <c r="B199" s="28"/>
       <c r="C199" s="28"/>
     </row>
@@ -2433,31 +2490,31 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="25"/>
-      <c r="B201" s="29"/>
+      <c r="B201" s="28"/>
       <c r="C201" s="28"/>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="25"/>
-      <c r="B202" s="28"/>
+      <c r="B202" s="29"/>
       <c r="C202" s="28"/>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="25"/>
-      <c r="B203" s="28"/>
+      <c r="B203" s="29"/>
       <c r="C203" s="28"/>
     </row>
     <row r="204" spans="1:3">
-      <c r="A204" s="27"/>
+      <c r="A204" s="25"/>
       <c r="B204" s="28"/>
       <c r="C204" s="28"/>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="25"/>
-      <c r="B205" s="29"/>
+      <c r="B205" s="28"/>
       <c r="C205" s="28"/>
     </row>
     <row r="206" spans="1:3">
-      <c r="A206" s="25"/>
+      <c r="A206" s="27"/>
       <c r="B206" s="28"/>
       <c r="C206" s="28"/>
     </row>
@@ -2468,31 +2525,31 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="25"/>
-      <c r="B208" s="29"/>
+      <c r="B208" s="28"/>
       <c r="C208" s="28"/>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="25"/>
-      <c r="B209" s="28"/>
+      <c r="B209" s="29"/>
       <c r="C209" s="28"/>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="25"/>
-      <c r="B210" s="28"/>
+      <c r="B210" s="29"/>
       <c r="C210" s="28"/>
     </row>
     <row r="211" spans="1:3">
-      <c r="A211" s="27"/>
+      <c r="A211" s="25"/>
       <c r="B211" s="28"/>
       <c r="C211" s="28"/>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="25"/>
-      <c r="B212" s="29"/>
+      <c r="B212" s="28"/>
       <c r="C212" s="28"/>
     </row>
     <row r="213" spans="1:3">
-      <c r="A213" s="25"/>
+      <c r="A213" s="27"/>
       <c r="B213" s="28"/>
       <c r="C213" s="28"/>
     </row>
@@ -2503,17 +2560,17 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="25"/>
-      <c r="B215" s="29"/>
+      <c r="B215" s="28"/>
       <c r="C215" s="28"/>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="25"/>
-      <c r="B216" s="28"/>
+      <c r="B216" s="29"/>
       <c r="C216" s="28"/>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="25"/>
-      <c r="B217" s="28"/>
+      <c r="B217" s="29"/>
       <c r="C217" s="28"/>
     </row>
     <row r="218" spans="1:3">
@@ -3240,6 +3297,16 @@
       <c r="A362" s="25"/>
       <c r="B362" s="28"/>
       <c r="C362" s="28"/>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" s="25"/>
+      <c r="B363" s="28"/>
+      <c r="C363" s="28"/>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" s="25"/>
+      <c r="B364" s="28"/>
+      <c r="C364" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>

--- a/weekly/要做的事.xlsx
+++ b/weekly/要做的事.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="83">
   <si>
     <t>完成情况%</t>
   </si>
@@ -526,7 +526,11 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>这学期到下学期先做传统的，熟悉常见框架，解决机器人问题，评估出论文的可行性，提高代码能力，同时花部分精力关注其他方向，也为明年暑假实习（留意大厂实习）做准备，直到明年暑假去实习完；暑假实习完后选个合适方向准备出论文和考虑是否读博</t>
+    <t>这学期到下学期先做传统的，熟悉常见框架，解决机器人问题，评估出论文的可行性，提高代码能力，同时花部分精力关注其他方向，也为明年暑假实习（可以提前点，凑够2、3个月，留意大厂实习）做准备，直到明年暑假去实习完；暑假实习完后选个合适方向准备出论文和考虑是否读博</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>看多视图几何书</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -1104,8 +1108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1727,7 +1731,9 @@
       <c r="A73" s="12">
         <v>3</v>
       </c>
-      <c r="B73" s="21"/>
+      <c r="B73" s="34" t="s">
+        <v>82</v>
+      </c>
       <c r="C73" s="5"/>
     </row>
     <row r="74" spans="1:3">

--- a/weekly/要做的事.xlsx
+++ b/weekly/要做的事.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="87">
   <si>
     <t>完成情况%</t>
   </si>
@@ -531,6 +531,22 @@
   </si>
   <si>
     <t>看多视图几何书</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORB-VINS(港科大）-VLOAM（ji zhang）</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>orb代码</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>先放到机器人上跑一跑</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决在数据集上丢失的问题</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -716,7 +732,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -743,9 +759,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1106,10 +1119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C364"/>
+  <dimension ref="A1:C367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1298,7 +1311,7 @@
       <c r="A20" s="2">
         <v>16</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="35" t="s">
         <v>70</v>
       </c>
       <c r="C20" s="5">
@@ -1336,7 +1349,7 @@
       <c r="A24" s="8">
         <v>20</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="31" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1344,7 +1357,7 @@
       <c r="A25" s="8">
         <v>21</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="31" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1352,1967 +1365,1991 @@
       <c r="A26" s="8">
         <v>22</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="21" customHeight="1">
-      <c r="A27" s="9"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="10" t="s">
+      <c r="A27" s="8">
+        <v>23</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="21" customHeight="1">
+      <c r="A28" s="8">
+        <v>24</v>
+      </c>
+      <c r="B28" s="16"/>
+    </row>
+    <row r="29" spans="1:3" ht="21" customHeight="1">
+      <c r="A29" s="8">
+        <v>25</v>
+      </c>
+      <c r="B29" s="16"/>
+    </row>
+    <row r="30" spans="1:3" ht="21" customHeight="1">
+      <c r="A30" s="8"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B31" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C31" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="12">
-        <v>1</v>
-      </c>
-      <c r="B29" s="3" t="s">
+    <row r="32" spans="1:3">
+      <c r="A32" s="11">
+        <v>1</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="12">
+      <c r="C32" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="11">
         <v>2</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B33" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="12">
+      <c r="C33" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="11">
         <v>3</v>
       </c>
-      <c r="C31" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="16.5">
-      <c r="A32" s="12">
+      <c r="C34" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="16.5">
+      <c r="A35" s="11">
         <v>4</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B35" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:3" ht="15">
-      <c r="A33" s="12">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:3" ht="15">
+      <c r="A36" s="11">
         <v>5</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B36" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="6"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="12"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="6"/>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="10" t="s">
+      <c r="C36" s="6"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="11"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="6"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="7" t="s">
+      <c r="B38" s="29"/>
+      <c r="C38" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="12">
+    <row r="39" spans="1:3">
+      <c r="A39" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="16.5">
-      <c r="A38" s="12">
+    <row r="41" spans="1:3" ht="16.5">
+      <c r="A41" s="11">
         <v>3</v>
       </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="5"/>
-    </row>
-    <row r="39" spans="1:3" ht="15">
-      <c r="A39" s="12">
+      <c r="B41" s="15"/>
+      <c r="C41" s="5"/>
+    </row>
+    <row r="42" spans="1:3" ht="15">
+      <c r="A42" s="11">
         <v>4</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="5"/>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="12">
+      <c r="B42" s="13"/>
+      <c r="C42" s="5"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="11">
         <v>5</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="6"/>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="B41" s="3"/>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="10" t="s">
+      <c r="B43" s="3"/>
+      <c r="C43" s="6"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B45" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C45" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="12">
-        <v>1</v>
-      </c>
-      <c r="B43" s="33" t="s">
+    <row r="46" spans="1:3">
+      <c r="A46" s="11">
+        <v>1</v>
+      </c>
+      <c r="B46" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="20.25">
-      <c r="A44" s="12">
+      <c r="C46" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="20.25">
+      <c r="A47" s="11">
         <v>2</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B47" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C44" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15">
-      <c r="A45" s="12">
+      <c r="C47" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15">
+      <c r="A48" s="11">
         <v>3</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B48" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="33.75" customHeight="1">
-      <c r="A46" s="12">
+      <c r="C48" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="33.75" customHeight="1">
+      <c r="A49" s="11">
         <v>4</v>
       </c>
-      <c r="B46" s="30" t="s">
+      <c r="B49" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="12">
+      <c r="C49" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="11">
         <v>5</v>
       </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="5"/>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="B48" s="2"/>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="10" t="s">
+      <c r="B50" s="10"/>
+      <c r="C50" s="5"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B49" s="19" t="s">
+      <c r="B52" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C52" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="12">
-        <v>1</v>
-      </c>
-      <c r="B50" s="33" t="s">
+    <row r="53" spans="1:3">
+      <c r="A53" s="11">
+        <v>1</v>
+      </c>
+      <c r="B53" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C50" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="12">
+      <c r="C53" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="11">
         <v>2</v>
       </c>
-      <c r="B51" s="35" t="s">
+      <c r="B54" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="C51" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="12">
+      <c r="C54" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="11">
         <v>3</v>
       </c>
-      <c r="B52" s="33" t="s">
+      <c r="B55" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="C52" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="12">
+      <c r="C55" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="11">
         <v>4</v>
       </c>
-      <c r="B53" s="35" t="s">
+      <c r="B56" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="12">
+      <c r="C56" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="11">
         <v>5</v>
       </c>
-      <c r="B54" s="35" t="s">
+      <c r="B57" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="7"/>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="B55" s="20"/>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="10" t="s">
+      <c r="C57" s="7"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="B58" s="19"/>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B56" s="20" t="s">
+      <c r="B59" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C59" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="12">
-        <v>1</v>
-      </c>
-      <c r="B57" s="20" t="s">
+    <row r="60" spans="1:3">
+      <c r="A60" s="11">
+        <v>1</v>
+      </c>
+      <c r="B60" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C57" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="12">
+      <c r="C60" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="11">
         <v>2</v>
       </c>
-      <c r="B58" s="34"/>
-      <c r="C58" s="5"/>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="12">
+      <c r="B61" s="33"/>
+      <c r="C61" s="5"/>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="11">
         <v>3</v>
       </c>
-      <c r="B59" s="34"/>
-      <c r="C59" s="5"/>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="12">
+      <c r="B62" s="33"/>
+      <c r="C62" s="5"/>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="11">
         <v>4</v>
       </c>
-      <c r="B60" s="34"/>
-      <c r="C60" s="5"/>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="12">
+      <c r="B63" s="33"/>
+      <c r="C63" s="5"/>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="11">
         <v>5</v>
       </c>
-      <c r="B61" s="21"/>
-      <c r="C61" s="5"/>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="10" t="s">
+      <c r="B64" s="20"/>
+      <c r="C64" s="5"/>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B63" s="33" t="s">
+      <c r="B66" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C66" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="12">
-        <v>1</v>
-      </c>
-      <c r="B64" s="36" t="s">
+    <row r="67" spans="1:3">
+      <c r="A67" s="11">
+        <v>1</v>
+      </c>
+      <c r="B67" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="C64" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="16.5">
-      <c r="A65" s="12">
+      <c r="C67" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="16.5">
+      <c r="A68" s="11">
         <v>2</v>
       </c>
-      <c r="B65" s="22"/>
-      <c r="C65" s="7"/>
-    </row>
-    <row r="66" spans="1:3" ht="16.5">
-      <c r="A66" s="12">
+      <c r="B68" s="21"/>
+      <c r="C68" s="7"/>
+    </row>
+    <row r="69" spans="1:3" ht="16.5">
+      <c r="A69" s="11">
         <v>3</v>
       </c>
-      <c r="B66" s="22"/>
-      <c r="C66" s="5"/>
-    </row>
-    <row r="67" spans="1:3" ht="16.5">
-      <c r="A67" s="12">
+      <c r="B69" s="21"/>
+      <c r="C69" s="5"/>
+    </row>
+    <row r="70" spans="1:3" ht="16.5">
+      <c r="A70" s="11">
         <v>4</v>
       </c>
-      <c r="B67" s="22"/>
-      <c r="C67" s="5"/>
-    </row>
-    <row r="68" spans="1:3" ht="16.5">
-      <c r="A68" s="12">
+      <c r="B70" s="21"/>
+      <c r="C70" s="5"/>
+    </row>
+    <row r="71" spans="1:3" ht="16.5">
+      <c r="A71" s="11">
         <v>5</v>
       </c>
-      <c r="B68" s="22"/>
-      <c r="C68" s="7"/>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="10" t="s">
+      <c r="B71" s="21"/>
+      <c r="C71" s="7"/>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B70" s="33" t="s">
+      <c r="B73" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C73" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="12">
-        <v>1</v>
-      </c>
-      <c r="B71" s="34" t="s">
+    <row r="74" spans="1:3">
+      <c r="A74" s="11">
+        <v>1</v>
+      </c>
+      <c r="B74" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="C71" s="5"/>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="12">
+      <c r="C74" s="5"/>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="11">
         <v>2</v>
       </c>
-      <c r="B72" s="34" t="s">
+      <c r="B75" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="C72" s="5"/>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="12">
+      <c r="C75" s="5"/>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="11">
         <v>3</v>
       </c>
-      <c r="B73" s="34" t="s">
+      <c r="B76" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="C73" s="5"/>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="12">
+      <c r="C76" s="5"/>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="11">
         <v>4</v>
       </c>
-      <c r="B74" s="21"/>
-      <c r="C74" s="5"/>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="12">
+      <c r="B77" s="20"/>
+      <c r="C77" s="5"/>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="11">
         <v>5</v>
       </c>
-      <c r="B75" s="21"/>
-      <c r="C75" s="5"/>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="10" t="s">
+      <c r="B78" s="20"/>
+      <c r="C78" s="5"/>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B77" s="33" t="s">
+      <c r="B80" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C80" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="12">
-        <v>1</v>
-      </c>
-      <c r="B78" s="30" t="s">
+    <row r="81" spans="1:3">
+      <c r="A81" s="11">
+        <v>1</v>
+      </c>
+      <c r="B81" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C78" s="5"/>
-    </row>
-    <row r="79" spans="1:3" ht="15">
-      <c r="A79" s="12">
+      <c r="C81" s="5"/>
+    </row>
+    <row r="82" spans="1:3" ht="15">
+      <c r="A82" s="11">
         <v>2</v>
       </c>
-      <c r="B79" s="17" t="s">
+      <c r="B82" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C79" s="5"/>
-    </row>
-    <row r="80" spans="1:3" ht="15">
-      <c r="A80" s="12">
+      <c r="C82" s="5"/>
+    </row>
+    <row r="83" spans="1:3" ht="15">
+      <c r="A83" s="11">
         <v>3</v>
       </c>
-      <c r="B80" s="17" t="s">
+      <c r="B83" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C80" s="5"/>
-    </row>
-    <row r="81" spans="1:3" ht="15">
-      <c r="A81" s="12">
+      <c r="C83" s="5"/>
+    </row>
+    <row r="84" spans="1:3" ht="15">
+      <c r="A84" s="11">
         <v>4</v>
       </c>
-      <c r="B81" s="17" t="s">
+      <c r="B84" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C81" s="5"/>
-    </row>
-    <row r="82" spans="1:3" ht="15">
-      <c r="A82" s="12">
+      <c r="C84" s="5"/>
+    </row>
+    <row r="85" spans="1:3" ht="15">
+      <c r="A85" s="11">
         <v>5</v>
       </c>
-      <c r="B82" s="17" t="s">
+      <c r="B85" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C82" s="5"/>
-    </row>
-    <row r="83" spans="1:3" ht="15">
-      <c r="A83" s="25">
+      <c r="C85" s="5"/>
+    </row>
+    <row r="86" spans="1:3" ht="15">
+      <c r="A86" s="24">
         <v>6</v>
       </c>
-      <c r="B83" s="17" t="s">
+      <c r="B86" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C83" s="37"/>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="10" t="s">
+      <c r="C86" s="36"/>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B88" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15">
+      <c r="A89" s="11">
+        <v>1</v>
+      </c>
+      <c r="B89" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C89" s="22"/>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="11">
+        <v>2</v>
+      </c>
+      <c r="B90" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C90" s="22"/>
+    </row>
+    <row r="91" spans="1:3" ht="16.5">
+      <c r="A91" s="11">
+        <v>3</v>
+      </c>
+      <c r="B91" s="15"/>
+      <c r="C91" s="22"/>
+    </row>
+    <row r="92" spans="1:3" ht="16.5">
+      <c r="A92" s="11">
+        <v>4</v>
+      </c>
+      <c r="B92" s="15"/>
+      <c r="C92" s="22"/>
+    </row>
+    <row r="93" spans="1:3" ht="16.5">
+      <c r="A93" s="11">
+        <v>5</v>
+      </c>
+      <c r="B93" s="15"/>
+      <c r="C93" s="22"/>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B95" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C95" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="16.5">
-      <c r="A86" s="12">
-        <v>1</v>
-      </c>
-      <c r="B86" s="16"/>
-      <c r="C86" s="23"/>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="12">
+    <row r="96" spans="1:3" ht="16.5">
+      <c r="A96" s="11">
+        <v>1</v>
+      </c>
+      <c r="B96" s="15"/>
+      <c r="C96" s="22"/>
+    </row>
+    <row r="97" spans="1:3" ht="16.5">
+      <c r="A97" s="11">
         <v>2</v>
       </c>
-      <c r="B87" s="11"/>
-      <c r="C87" s="23"/>
-    </row>
-    <row r="88" spans="1:3" ht="16.5">
-      <c r="A88" s="12">
+      <c r="B97" s="15"/>
+      <c r="C97" s="22"/>
+    </row>
+    <row r="98" spans="1:3" ht="16.5">
+      <c r="A98" s="11">
         <v>3</v>
       </c>
-      <c r="B88" s="16"/>
-      <c r="C88" s="23"/>
-    </row>
-    <row r="89" spans="1:3" ht="16.5">
-      <c r="A89" s="12">
+      <c r="B98" s="15"/>
+      <c r="C98" s="22"/>
+    </row>
+    <row r="99" spans="1:3" ht="16.5">
+      <c r="A99" s="11">
         <v>4</v>
       </c>
-      <c r="B89" s="16"/>
-      <c r="C89" s="23"/>
-    </row>
-    <row r="90" spans="1:3" ht="16.5">
-      <c r="A90" s="12">
+      <c r="B99" s="15"/>
+      <c r="C99" s="22"/>
+    </row>
+    <row r="100" spans="1:3" ht="16.5">
+      <c r="A100" s="11">
         <v>5</v>
       </c>
-      <c r="B90" s="16"/>
-      <c r="C90" s="23"/>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B92" s="7" t="s">
+      <c r="B100" s="12"/>
+      <c r="C100" s="22"/>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B102" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C102" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="16.5">
-      <c r="A93" s="12">
-        <v>1</v>
-      </c>
-      <c r="B93" s="16"/>
-      <c r="C93" s="23"/>
-    </row>
-    <row r="94" spans="1:3" ht="16.5">
-      <c r="A94" s="12">
+    <row r="103" spans="1:3" ht="16.5">
+      <c r="A103" s="11">
+        <v>1</v>
+      </c>
+      <c r="B103" s="15"/>
+      <c r="C103" s="22"/>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="11">
         <v>2</v>
       </c>
-      <c r="B94" s="16"/>
-      <c r="C94" s="23"/>
-    </row>
-    <row r="95" spans="1:3" ht="16.5">
-      <c r="A95" s="12">
+      <c r="B104" s="7"/>
+      <c r="C104" s="22"/>
+    </row>
+    <row r="105" spans="1:3" ht="16.5">
+      <c r="A105" s="11">
         <v>3</v>
       </c>
-      <c r="B95" s="16"/>
-      <c r="C95" s="23"/>
-    </row>
-    <row r="96" spans="1:3" ht="16.5">
-      <c r="A96" s="12">
+      <c r="B105" s="15"/>
+      <c r="C105" s="22"/>
+    </row>
+    <row r="106" spans="1:3" ht="16.5">
+      <c r="A106" s="11">
         <v>4</v>
       </c>
-      <c r="B96" s="16"/>
-      <c r="C96" s="23"/>
-    </row>
-    <row r="97" spans="1:3" ht="16.5">
-      <c r="A97" s="12">
+      <c r="B106" s="15"/>
+      <c r="C106" s="22"/>
+    </row>
+    <row r="107" spans="1:3" ht="16.5">
+      <c r="A107" s="11">
         <v>5</v>
       </c>
-      <c r="B97" s="13"/>
-      <c r="C97" s="23"/>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B99" s="7" t="s">
+      <c r="B107" s="15"/>
+      <c r="C107" s="22"/>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B109" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="11">
+        <v>1</v>
+      </c>
+      <c r="C110" s="22"/>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="11">
+        <v>2</v>
+      </c>
+      <c r="C111" s="22"/>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="11">
+        <v>3</v>
+      </c>
+      <c r="C112" s="22"/>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="11">
+        <v>4</v>
+      </c>
+      <c r="C113" s="23"/>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="11">
+        <v>5</v>
+      </c>
+      <c r="C114" s="22"/>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="24"/>
+      <c r="C115" s="25"/>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B117" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C99" s="7" t="s">
+      <c r="C117" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="16.5">
-      <c r="A100" s="12">
-        <v>1</v>
-      </c>
-      <c r="B100" s="16"/>
-      <c r="C100" s="23"/>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="12">
+    <row r="118" spans="1:3">
+      <c r="A118" s="11">
+        <v>1</v>
+      </c>
+      <c r="C118" s="7"/>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="11">
         <v>2</v>
       </c>
-      <c r="B101" s="7"/>
-      <c r="C101" s="23"/>
-    </row>
-    <row r="102" spans="1:3" ht="16.5">
-      <c r="A102" s="12">
+      <c r="C119" s="22"/>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="11">
         <v>3</v>
       </c>
-      <c r="B102" s="16"/>
-      <c r="C102" s="23"/>
-    </row>
-    <row r="103" spans="1:3" ht="16.5">
-      <c r="A103" s="12">
+      <c r="C120" s="22"/>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="11">
         <v>4</v>
       </c>
-      <c r="B103" s="16"/>
-      <c r="C103" s="23"/>
-    </row>
-    <row r="104" spans="1:3" ht="16.5">
-      <c r="A104" s="12">
+      <c r="C121" s="22"/>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="11">
         <v>5</v>
       </c>
-      <c r="B104" s="16"/>
-      <c r="C104" s="23"/>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B106" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C106" s="7" t="s">
+      <c r="C122" s="22"/>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C124" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="12">
-        <v>1</v>
-      </c>
-      <c r="C107" s="23"/>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="12">
+    <row r="125" spans="1:3">
+      <c r="A125" s="11">
+        <v>1</v>
+      </c>
+      <c r="C125" s="7"/>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="11">
         <v>2</v>
       </c>
-      <c r="C108" s="23"/>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="12">
+      <c r="C126" s="7"/>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="11">
         <v>3</v>
       </c>
-      <c r="C109" s="23"/>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="12">
+      <c r="C127" s="7"/>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="11"/>
+      <c r="C128" s="7"/>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="11">
         <v>4</v>
       </c>
-      <c r="C110" s="24"/>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="12">
+      <c r="C129" s="7"/>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="11">
         <v>5</v>
       </c>
-      <c r="C111" s="23"/>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="25"/>
-      <c r="C112" s="26"/>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B114" s="7" t="s">
+      <c r="C130" s="7"/>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B132" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C114" s="7" t="s">
+      <c r="C132" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="12">
-        <v>1</v>
-      </c>
-      <c r="C115" s="7"/>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="12">
+    <row r="133" spans="1:3">
+      <c r="A133" s="11">
+        <v>1</v>
+      </c>
+      <c r="C133" s="7"/>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="11">
         <v>2</v>
       </c>
-      <c r="C116" s="23"/>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="12">
+      <c r="C134" s="7"/>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="11">
         <v>3</v>
       </c>
-      <c r="C117" s="23"/>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="12">
+      <c r="C135" s="7"/>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="11">
         <v>4</v>
       </c>
-      <c r="C118" s="23"/>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="12">
+      <c r="C136" s="7"/>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="11">
         <v>5</v>
       </c>
-      <c r="C119" s="23"/>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C121" s="7" t="s">
+      <c r="C137" s="7"/>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C139" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="12">
-        <v>1</v>
-      </c>
-      <c r="C122" s="7"/>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="12">
+    <row r="140" spans="1:3">
+      <c r="A140" s="11">
+        <v>1</v>
+      </c>
+      <c r="C140" s="7"/>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="11">
         <v>2</v>
       </c>
-      <c r="C123" s="7"/>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="12">
+      <c r="C141" s="7"/>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="11">
         <v>3</v>
       </c>
-      <c r="C124" s="7"/>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="12"/>
-      <c r="C125" s="7"/>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="12">
+      <c r="C142" s="7"/>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="11">
         <v>4</v>
       </c>
-      <c r="C126" s="7"/>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="12">
+      <c r="C143" s="7"/>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="11">
         <v>5</v>
       </c>
-      <c r="C127" s="7"/>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B129" s="7" t="s">
+      <c r="C144" s="7"/>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B146" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C129" s="7" t="s">
+      <c r="C146" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="12">
-        <v>1</v>
-      </c>
-      <c r="C130" s="7"/>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="12">
+    <row r="147" spans="1:3">
+      <c r="A147" s="11">
+        <v>1</v>
+      </c>
+      <c r="B147" s="14"/>
+      <c r="C147" s="7"/>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="11">
         <v>2</v>
-      </c>
-      <c r="C131" s="7"/>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="12">
-        <v>3</v>
-      </c>
-      <c r="C132" s="7"/>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="12">
-        <v>4</v>
-      </c>
-      <c r="C133" s="7"/>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="12">
-        <v>5</v>
-      </c>
-      <c r="C134" s="7"/>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C136" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="12">
-        <v>1</v>
-      </c>
-      <c r="C137" s="7"/>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="12">
-        <v>2</v>
-      </c>
-      <c r="C138" s="7"/>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" s="12">
-        <v>3</v>
-      </c>
-      <c r="C139" s="7"/>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="12">
-        <v>4</v>
-      </c>
-      <c r="C140" s="7"/>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" s="12">
-        <v>5</v>
-      </c>
-      <c r="C141" s="7"/>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C143" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" s="12">
-        <v>1</v>
-      </c>
-      <c r="B144" s="15"/>
-      <c r="C144" s="7"/>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" s="12">
-        <v>2</v>
-      </c>
-      <c r="B145" s="7"/>
-      <c r="C145" s="7"/>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" s="12">
-        <v>3</v>
-      </c>
-      <c r="B146" s="15"/>
-      <c r="C146" s="7"/>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147" s="12">
-        <v>4</v>
-      </c>
-      <c r="B147" s="15"/>
-      <c r="C147" s="7"/>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" s="12">
-        <v>5</v>
       </c>
       <c r="B148" s="7"/>
       <c r="C148" s="7"/>
     </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="11">
+        <v>3</v>
+      </c>
+      <c r="B149" s="14"/>
+      <c r="C149" s="7"/>
+    </row>
     <row r="150" spans="1:3">
-      <c r="A150" s="10" t="s">
+      <c r="A150" s="11">
+        <v>4</v>
+      </c>
+      <c r="B150" s="14"/>
+      <c r="C150" s="7"/>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="11">
+        <v>5</v>
+      </c>
+      <c r="B151" s="7"/>
+      <c r="C151" s="7"/>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B150" s="7" t="s">
+      <c r="B153" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C150" s="7" t="s">
+      <c r="C153" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
-      <c r="A151" s="12">
-        <v>1</v>
-      </c>
-      <c r="B151" s="15"/>
-      <c r="C151" s="7"/>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" s="12">
+    <row r="154" spans="1:3">
+      <c r="A154" s="11">
+        <v>1</v>
+      </c>
+      <c r="B154" s="14"/>
+      <c r="C154" s="7"/>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="11">
         <v>2</v>
-      </c>
-      <c r="B152" s="7"/>
-      <c r="C152" s="7"/>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" s="12">
-        <v>3</v>
-      </c>
-      <c r="B153" s="15"/>
-      <c r="C153" s="7"/>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" s="12">
-        <v>4</v>
-      </c>
-      <c r="B154" s="15"/>
-      <c r="C154" s="7"/>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" s="12">
-        <v>5</v>
       </c>
       <c r="B155" s="7"/>
       <c r="C155" s="7"/>
     </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="11">
+        <v>3</v>
+      </c>
+      <c r="B156" s="14"/>
+      <c r="C156" s="7"/>
+    </row>
     <row r="157" spans="1:3">
-      <c r="A157" s="10" t="s">
+      <c r="A157" s="11">
+        <v>4</v>
+      </c>
+      <c r="B157" s="14"/>
+      <c r="C157" s="7"/>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="11">
+        <v>5</v>
+      </c>
+      <c r="B158" s="7"/>
+      <c r="C158" s="7"/>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B157" s="7" t="s">
+      <c r="B160" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C157" s="7" t="s">
+      <c r="C160" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
-      <c r="A158" s="12">
-        <v>1</v>
-      </c>
-      <c r="B158" s="15"/>
-      <c r="C158" s="7"/>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159" s="12">
+    <row r="161" spans="1:3">
+      <c r="A161" s="11">
+        <v>1</v>
+      </c>
+      <c r="B161" s="14"/>
+      <c r="C161" s="7"/>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="11">
         <v>2</v>
-      </c>
-      <c r="B159" s="7"/>
-      <c r="C159" s="7"/>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160" s="12">
-        <v>3</v>
-      </c>
-      <c r="B160" s="15"/>
-      <c r="C160" s="7"/>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="A161" s="12">
-        <v>4</v>
-      </c>
-      <c r="B161" s="15"/>
-      <c r="C161" s="7"/>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162" s="12">
-        <v>5</v>
       </c>
       <c r="B162" s="7"/>
       <c r="C162" s="7"/>
     </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="11">
+        <v>3</v>
+      </c>
+      <c r="B163" s="14"/>
+      <c r="C163" s="7"/>
+    </row>
     <row r="164" spans="1:3">
-      <c r="A164" s="10" t="s">
+      <c r="A164" s="11">
+        <v>4</v>
+      </c>
+      <c r="B164" s="14"/>
+      <c r="C164" s="7"/>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="11">
+        <v>5</v>
+      </c>
+      <c r="B165" s="7"/>
+      <c r="C165" s="7"/>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B164" s="7" t="s">
+      <c r="B167" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C164" s="7" t="s">
+      <c r="C167" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
-      <c r="A165" s="12">
-        <v>1</v>
-      </c>
-      <c r="B165" s="15"/>
-      <c r="C165" s="7"/>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="A166" s="12">
+    <row r="168" spans="1:3">
+      <c r="A168" s="11">
+        <v>1</v>
+      </c>
+      <c r="B168" s="14"/>
+      <c r="C168" s="7"/>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="11">
         <v>2</v>
-      </c>
-      <c r="B166" s="7"/>
-      <c r="C166" s="7"/>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="A167" s="12">
-        <v>3</v>
-      </c>
-      <c r="B167" s="15"/>
-      <c r="C167" s="7"/>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="A168" s="12">
-        <v>4</v>
-      </c>
-      <c r="B168" s="15"/>
-      <c r="C168" s="7"/>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="A169" s="12">
-        <v>5</v>
       </c>
       <c r="B169" s="7"/>
       <c r="C169" s="7"/>
     </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="11">
+        <v>3</v>
+      </c>
+      <c r="B170" s="14"/>
+      <c r="C170" s="7"/>
+    </row>
     <row r="171" spans="1:3">
-      <c r="A171" s="27"/>
-      <c r="B171" s="28"/>
-      <c r="C171" s="28"/>
+      <c r="A171" s="11">
+        <v>4</v>
+      </c>
+      <c r="B171" s="14"/>
+      <c r="C171" s="7"/>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172" s="25"/>
-      <c r="B172" s="29"/>
-      <c r="C172" s="28"/>
-    </row>
-    <row r="173" spans="1:3">
-      <c r="A173" s="25"/>
-      <c r="B173" s="28"/>
-      <c r="C173" s="28"/>
+      <c r="A172" s="11">
+        <v>5</v>
+      </c>
+      <c r="B172" s="7"/>
+      <c r="C172" s="7"/>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174" s="25"/>
-      <c r="B174" s="29"/>
-      <c r="C174" s="28"/>
+      <c r="A174" s="26"/>
+      <c r="B174" s="27"/>
+      <c r="C174" s="27"/>
     </row>
     <row r="175" spans="1:3">
-      <c r="A175" s="25"/>
-      <c r="B175" s="29"/>
-      <c r="C175" s="28"/>
+      <c r="A175" s="24"/>
+      <c r="B175" s="28"/>
+      <c r="C175" s="27"/>
     </row>
     <row r="176" spans="1:3">
-      <c r="A176" s="25"/>
-      <c r="B176" s="28"/>
-      <c r="C176" s="28"/>
+      <c r="A176" s="24"/>
+      <c r="B176" s="27"/>
+      <c r="C176" s="27"/>
     </row>
     <row r="177" spans="1:3">
-      <c r="A177" s="25"/>
+      <c r="A177" s="24"/>
       <c r="B177" s="28"/>
-      <c r="C177" s="28"/>
+      <c r="C177" s="27"/>
     </row>
     <row r="178" spans="1:3">
-      <c r="A178" s="27"/>
+      <c r="A178" s="24"/>
       <c r="B178" s="28"/>
-      <c r="C178" s="28"/>
+      <c r="C178" s="27"/>
     </row>
     <row r="179" spans="1:3">
-      <c r="A179" s="25"/>
-      <c r="B179" s="29"/>
-      <c r="C179" s="28"/>
+      <c r="A179" s="24"/>
+      <c r="B179" s="27"/>
+      <c r="C179" s="27"/>
     </row>
     <row r="180" spans="1:3">
-      <c r="A180" s="25"/>
-      <c r="B180" s="28"/>
-      <c r="C180" s="28"/>
+      <c r="A180" s="24"/>
+      <c r="B180" s="27"/>
+      <c r="C180" s="27"/>
     </row>
     <row r="181" spans="1:3">
-      <c r="A181" s="25"/>
-      <c r="B181" s="29"/>
-      <c r="C181" s="28"/>
+      <c r="A181" s="26"/>
+      <c r="B181" s="27"/>
+      <c r="C181" s="27"/>
     </row>
     <row r="182" spans="1:3">
-      <c r="A182" s="25"/>
-      <c r="B182" s="29"/>
-      <c r="C182" s="28"/>
+      <c r="A182" s="24"/>
+      <c r="B182" s="28"/>
+      <c r="C182" s="27"/>
     </row>
     <row r="183" spans="1:3">
-      <c r="A183" s="25"/>
-      <c r="B183" s="28"/>
-      <c r="C183" s="28"/>
+      <c r="A183" s="24"/>
+      <c r="B183" s="27"/>
+      <c r="C183" s="27"/>
     </row>
     <row r="184" spans="1:3">
-      <c r="A184" s="25"/>
+      <c r="A184" s="24"/>
       <c r="B184" s="28"/>
-      <c r="C184" s="28"/>
+      <c r="C184" s="27"/>
     </row>
     <row r="185" spans="1:3">
-      <c r="A185" s="27"/>
+      <c r="A185" s="24"/>
       <c r="B185" s="28"/>
-      <c r="C185" s="28"/>
+      <c r="C185" s="27"/>
     </row>
     <row r="186" spans="1:3">
-      <c r="A186" s="25"/>
-      <c r="B186" s="29"/>
-      <c r="C186" s="28"/>
+      <c r="A186" s="24"/>
+      <c r="B186" s="27"/>
+      <c r="C186" s="27"/>
     </row>
     <row r="187" spans="1:3">
-      <c r="A187" s="25"/>
-      <c r="B187" s="28"/>
-      <c r="C187" s="28"/>
+      <c r="A187" s="24"/>
+      <c r="B187" s="27"/>
+      <c r="C187" s="27"/>
     </row>
     <row r="188" spans="1:3">
-      <c r="A188" s="25"/>
-      <c r="B188" s="29"/>
-      <c r="C188" s="28"/>
+      <c r="A188" s="26"/>
+      <c r="B188" s="27"/>
+      <c r="C188" s="27"/>
     </row>
     <row r="189" spans="1:3">
-      <c r="A189" s="25"/>
-      <c r="B189" s="29"/>
-      <c r="C189" s="28"/>
+      <c r="A189" s="24"/>
+      <c r="B189" s="28"/>
+      <c r="C189" s="27"/>
     </row>
     <row r="190" spans="1:3">
-      <c r="A190" s="25"/>
-      <c r="B190" s="28"/>
-      <c r="C190" s="28"/>
+      <c r="A190" s="24"/>
+      <c r="B190" s="27"/>
+      <c r="C190" s="27"/>
     </row>
     <row r="191" spans="1:3">
-      <c r="A191" s="25"/>
+      <c r="A191" s="24"/>
       <c r="B191" s="28"/>
-      <c r="C191" s="28"/>
+      <c r="C191" s="27"/>
     </row>
     <row r="192" spans="1:3">
-      <c r="A192" s="27"/>
+      <c r="A192" s="24"/>
       <c r="B192" s="28"/>
-      <c r="C192" s="28"/>
+      <c r="C192" s="27"/>
     </row>
     <row r="193" spans="1:3">
-      <c r="A193" s="25"/>
-      <c r="B193" s="29"/>
-      <c r="C193" s="28"/>
+      <c r="A193" s="24"/>
+      <c r="B193" s="27"/>
+      <c r="C193" s="27"/>
     </row>
     <row r="194" spans="1:3">
-      <c r="A194" s="25"/>
-      <c r="B194" s="28"/>
-      <c r="C194" s="28"/>
+      <c r="A194" s="24"/>
+      <c r="B194" s="27"/>
+      <c r="C194" s="27"/>
     </row>
     <row r="195" spans="1:3">
-      <c r="A195" s="25"/>
-      <c r="B195" s="29"/>
-      <c r="C195" s="28"/>
+      <c r="A195" s="26"/>
+      <c r="B195" s="27"/>
+      <c r="C195" s="27"/>
     </row>
     <row r="196" spans="1:3">
-      <c r="A196" s="25"/>
-      <c r="B196" s="29"/>
-      <c r="C196" s="28"/>
+      <c r="A196" s="24"/>
+      <c r="B196" s="28"/>
+      <c r="C196" s="27"/>
     </row>
     <row r="197" spans="1:3">
-      <c r="A197" s="25"/>
-      <c r="B197" s="28"/>
-      <c r="C197" s="28"/>
+      <c r="A197" s="24"/>
+      <c r="B197" s="27"/>
+      <c r="C197" s="27"/>
     </row>
     <row r="198" spans="1:3">
-      <c r="A198" s="25"/>
+      <c r="A198" s="24"/>
       <c r="B198" s="28"/>
-      <c r="C198" s="28"/>
+      <c r="C198" s="27"/>
     </row>
     <row r="199" spans="1:3">
-      <c r="A199" s="27"/>
+      <c r="A199" s="24"/>
       <c r="B199" s="28"/>
-      <c r="C199" s="28"/>
+      <c r="C199" s="27"/>
     </row>
     <row r="200" spans="1:3">
-      <c r="A200" s="25"/>
-      <c r="B200" s="29"/>
-      <c r="C200" s="28"/>
+      <c r="A200" s="24"/>
+      <c r="B200" s="27"/>
+      <c r="C200" s="27"/>
     </row>
     <row r="201" spans="1:3">
-      <c r="A201" s="25"/>
-      <c r="B201" s="28"/>
-      <c r="C201" s="28"/>
+      <c r="A201" s="24"/>
+      <c r="B201" s="27"/>
+      <c r="C201" s="27"/>
     </row>
     <row r="202" spans="1:3">
-      <c r="A202" s="25"/>
-      <c r="B202" s="29"/>
-      <c r="C202" s="28"/>
+      <c r="A202" s="26"/>
+      <c r="B202" s="27"/>
+      <c r="C202" s="27"/>
     </row>
     <row r="203" spans="1:3">
-      <c r="A203" s="25"/>
-      <c r="B203" s="29"/>
-      <c r="C203" s="28"/>
+      <c r="A203" s="24"/>
+      <c r="B203" s="28"/>
+      <c r="C203" s="27"/>
     </row>
     <row r="204" spans="1:3">
-      <c r="A204" s="25"/>
-      <c r="B204" s="28"/>
-      <c r="C204" s="28"/>
+      <c r="A204" s="24"/>
+      <c r="B204" s="27"/>
+      <c r="C204" s="27"/>
     </row>
     <row r="205" spans="1:3">
-      <c r="A205" s="25"/>
+      <c r="A205" s="24"/>
       <c r="B205" s="28"/>
-      <c r="C205" s="28"/>
+      <c r="C205" s="27"/>
     </row>
     <row r="206" spans="1:3">
-      <c r="A206" s="27"/>
+      <c r="A206" s="24"/>
       <c r="B206" s="28"/>
-      <c r="C206" s="28"/>
+      <c r="C206" s="27"/>
     </row>
     <row r="207" spans="1:3">
-      <c r="A207" s="25"/>
-      <c r="B207" s="29"/>
-      <c r="C207" s="28"/>
+      <c r="A207" s="24"/>
+      <c r="B207" s="27"/>
+      <c r="C207" s="27"/>
     </row>
     <row r="208" spans="1:3">
-      <c r="A208" s="25"/>
-      <c r="B208" s="28"/>
-      <c r="C208" s="28"/>
+      <c r="A208" s="24"/>
+      <c r="B208" s="27"/>
+      <c r="C208" s="27"/>
     </row>
     <row r="209" spans="1:3">
-      <c r="A209" s="25"/>
-      <c r="B209" s="29"/>
-      <c r="C209" s="28"/>
+      <c r="A209" s="26"/>
+      <c r="B209" s="27"/>
+      <c r="C209" s="27"/>
     </row>
     <row r="210" spans="1:3">
-      <c r="A210" s="25"/>
-      <c r="B210" s="29"/>
-      <c r="C210" s="28"/>
+      <c r="A210" s="24"/>
+      <c r="B210" s="28"/>
+      <c r="C210" s="27"/>
     </row>
     <row r="211" spans="1:3">
-      <c r="A211" s="25"/>
-      <c r="B211" s="28"/>
-      <c r="C211" s="28"/>
+      <c r="A211" s="24"/>
+      <c r="B211" s="27"/>
+      <c r="C211" s="27"/>
     </row>
     <row r="212" spans="1:3">
-      <c r="A212" s="25"/>
+      <c r="A212" s="24"/>
       <c r="B212" s="28"/>
-      <c r="C212" s="28"/>
+      <c r="C212" s="27"/>
     </row>
     <row r="213" spans="1:3">
-      <c r="A213" s="27"/>
+      <c r="A213" s="24"/>
       <c r="B213" s="28"/>
-      <c r="C213" s="28"/>
+      <c r="C213" s="27"/>
     </row>
     <row r="214" spans="1:3">
-      <c r="A214" s="25"/>
-      <c r="B214" s="29"/>
-      <c r="C214" s="28"/>
+      <c r="A214" s="24"/>
+      <c r="B214" s="27"/>
+      <c r="C214" s="27"/>
     </row>
     <row r="215" spans="1:3">
-      <c r="A215" s="25"/>
-      <c r="B215" s="28"/>
-      <c r="C215" s="28"/>
+      <c r="A215" s="24"/>
+      <c r="B215" s="27"/>
+      <c r="C215" s="27"/>
     </row>
     <row r="216" spans="1:3">
-      <c r="A216" s="25"/>
-      <c r="B216" s="29"/>
-      <c r="C216" s="28"/>
+      <c r="A216" s="26"/>
+      <c r="B216" s="27"/>
+      <c r="C216" s="27"/>
     </row>
     <row r="217" spans="1:3">
-      <c r="A217" s="25"/>
-      <c r="B217" s="29"/>
-      <c r="C217" s="28"/>
+      <c r="A217" s="24"/>
+      <c r="B217" s="28"/>
+      <c r="C217" s="27"/>
     </row>
     <row r="218" spans="1:3">
-      <c r="A218" s="25"/>
-      <c r="B218" s="28"/>
-      <c r="C218" s="28"/>
+      <c r="A218" s="24"/>
+      <c r="B218" s="27"/>
+      <c r="C218" s="27"/>
     </row>
     <row r="219" spans="1:3">
-      <c r="A219" s="25"/>
+      <c r="A219" s="24"/>
       <c r="B219" s="28"/>
-      <c r="C219" s="28"/>
+      <c r="C219" s="27"/>
     </row>
     <row r="220" spans="1:3">
-      <c r="A220" s="25"/>
+      <c r="A220" s="24"/>
       <c r="B220" s="28"/>
-      <c r="C220" s="28"/>
+      <c r="C220" s="27"/>
     </row>
     <row r="221" spans="1:3">
-      <c r="A221" s="25"/>
-      <c r="B221" s="28"/>
-      <c r="C221" s="28"/>
+      <c r="A221" s="24"/>
+      <c r="B221" s="27"/>
+      <c r="C221" s="27"/>
     </row>
     <row r="222" spans="1:3">
-      <c r="A222" s="25"/>
-      <c r="B222" s="28"/>
-      <c r="C222" s="28"/>
+      <c r="A222" s="24"/>
+      <c r="B222" s="27"/>
+      <c r="C222" s="27"/>
     </row>
     <row r="223" spans="1:3">
-      <c r="A223" s="25"/>
-      <c r="B223" s="28"/>
-      <c r="C223" s="28"/>
+      <c r="A223" s="24"/>
+      <c r="B223" s="27"/>
+      <c r="C223" s="27"/>
     </row>
     <row r="224" spans="1:3">
-      <c r="A224" s="25"/>
-      <c r="B224" s="28"/>
-      <c r="C224" s="28"/>
+      <c r="A224" s="24"/>
+      <c r="B224" s="27"/>
+      <c r="C224" s="27"/>
     </row>
     <row r="225" spans="1:3">
-      <c r="A225" s="25"/>
-      <c r="B225" s="28"/>
-      <c r="C225" s="28"/>
+      <c r="A225" s="24"/>
+      <c r="B225" s="27"/>
+      <c r="C225" s="27"/>
     </row>
     <row r="226" spans="1:3">
-      <c r="A226" s="25"/>
-      <c r="B226" s="28"/>
-      <c r="C226" s="28"/>
+      <c r="A226" s="24"/>
+      <c r="B226" s="27"/>
+      <c r="C226" s="27"/>
     </row>
     <row r="227" spans="1:3">
-      <c r="A227" s="25"/>
-      <c r="B227" s="28"/>
-      <c r="C227" s="28"/>
+      <c r="A227" s="24"/>
+      <c r="B227" s="27"/>
+      <c r="C227" s="27"/>
     </row>
     <row r="228" spans="1:3">
-      <c r="A228" s="25"/>
-      <c r="B228" s="28"/>
-      <c r="C228" s="28"/>
+      <c r="A228" s="24"/>
+      <c r="B228" s="27"/>
+      <c r="C228" s="27"/>
     </row>
     <row r="229" spans="1:3">
-      <c r="A229" s="25"/>
-      <c r="B229" s="28"/>
-      <c r="C229" s="28"/>
+      <c r="A229" s="24"/>
+      <c r="B229" s="27"/>
+      <c r="C229" s="27"/>
     </row>
     <row r="230" spans="1:3">
-      <c r="A230" s="25"/>
-      <c r="B230" s="28"/>
-      <c r="C230" s="28"/>
+      <c r="A230" s="24"/>
+      <c r="B230" s="27"/>
+      <c r="C230" s="27"/>
     </row>
     <row r="231" spans="1:3">
-      <c r="A231" s="25"/>
-      <c r="B231" s="28"/>
-      <c r="C231" s="28"/>
+      <c r="A231" s="24"/>
+      <c r="B231" s="27"/>
+      <c r="C231" s="27"/>
     </row>
     <row r="232" spans="1:3">
-      <c r="A232" s="25"/>
-      <c r="B232" s="28"/>
-      <c r="C232" s="28"/>
+      <c r="A232" s="24"/>
+      <c r="B232" s="27"/>
+      <c r="C232" s="27"/>
     </row>
     <row r="233" spans="1:3">
-      <c r="A233" s="25"/>
-      <c r="B233" s="28"/>
-      <c r="C233" s="28"/>
+      <c r="A233" s="24"/>
+      <c r="B233" s="27"/>
+      <c r="C233" s="27"/>
     </row>
     <row r="234" spans="1:3">
-      <c r="A234" s="25"/>
-      <c r="B234" s="28"/>
-      <c r="C234" s="28"/>
+      <c r="A234" s="24"/>
+      <c r="B234" s="27"/>
+      <c r="C234" s="27"/>
     </row>
     <row r="235" spans="1:3">
-      <c r="A235" s="25"/>
-      <c r="B235" s="28"/>
-      <c r="C235" s="28"/>
+      <c r="A235" s="24"/>
+      <c r="B235" s="27"/>
+      <c r="C235" s="27"/>
     </row>
     <row r="236" spans="1:3">
-      <c r="A236" s="25"/>
-      <c r="B236" s="28"/>
-      <c r="C236" s="28"/>
+      <c r="A236" s="24"/>
+      <c r="B236" s="27"/>
+      <c r="C236" s="27"/>
     </row>
     <row r="237" spans="1:3">
-      <c r="A237" s="25"/>
-      <c r="B237" s="28"/>
-      <c r="C237" s="28"/>
+      <c r="A237" s="24"/>
+      <c r="B237" s="27"/>
+      <c r="C237" s="27"/>
     </row>
     <row r="238" spans="1:3">
-      <c r="A238" s="25"/>
-      <c r="B238" s="28"/>
-      <c r="C238" s="28"/>
+      <c r="A238" s="24"/>
+      <c r="B238" s="27"/>
+      <c r="C238" s="27"/>
     </row>
     <row r="239" spans="1:3">
-      <c r="A239" s="25"/>
-      <c r="B239" s="28"/>
-      <c r="C239" s="28"/>
+      <c r="A239" s="24"/>
+      <c r="B239" s="27"/>
+      <c r="C239" s="27"/>
     </row>
     <row r="240" spans="1:3">
-      <c r="A240" s="25"/>
-      <c r="B240" s="28"/>
-      <c r="C240" s="28"/>
+      <c r="A240" s="24"/>
+      <c r="B240" s="27"/>
+      <c r="C240" s="27"/>
     </row>
     <row r="241" spans="1:3">
-      <c r="A241" s="25"/>
-      <c r="B241" s="28"/>
-      <c r="C241" s="28"/>
+      <c r="A241" s="24"/>
+      <c r="B241" s="27"/>
+      <c r="C241" s="27"/>
     </row>
     <row r="242" spans="1:3">
-      <c r="A242" s="25"/>
-      <c r="B242" s="28"/>
-      <c r="C242" s="28"/>
+      <c r="A242" s="24"/>
+      <c r="B242" s="27"/>
+      <c r="C242" s="27"/>
     </row>
     <row r="243" spans="1:3">
-      <c r="A243" s="25"/>
-      <c r="B243" s="28"/>
-      <c r="C243" s="28"/>
+      <c r="A243" s="24"/>
+      <c r="B243" s="27"/>
+      <c r="C243" s="27"/>
     </row>
     <row r="244" spans="1:3">
-      <c r="A244" s="25"/>
-      <c r="B244" s="28"/>
-      <c r="C244" s="28"/>
+      <c r="A244" s="24"/>
+      <c r="B244" s="27"/>
+      <c r="C244" s="27"/>
     </row>
     <row r="245" spans="1:3">
-      <c r="A245" s="25"/>
-      <c r="B245" s="28"/>
-      <c r="C245" s="28"/>
+      <c r="A245" s="24"/>
+      <c r="B245" s="27"/>
+      <c r="C245" s="27"/>
     </row>
     <row r="246" spans="1:3">
-      <c r="A246" s="25"/>
-      <c r="B246" s="28"/>
-      <c r="C246" s="28"/>
+      <c r="A246" s="24"/>
+      <c r="B246" s="27"/>
+      <c r="C246" s="27"/>
     </row>
     <row r="247" spans="1:3">
-      <c r="A247" s="25"/>
-      <c r="B247" s="28"/>
-      <c r="C247" s="28"/>
+      <c r="A247" s="24"/>
+      <c r="B247" s="27"/>
+      <c r="C247" s="27"/>
     </row>
     <row r="248" spans="1:3">
-      <c r="A248" s="25"/>
-      <c r="B248" s="28"/>
-      <c r="C248" s="28"/>
+      <c r="A248" s="24"/>
+      <c r="B248" s="27"/>
+      <c r="C248" s="27"/>
     </row>
     <row r="249" spans="1:3">
-      <c r="A249" s="25"/>
-      <c r="B249" s="28"/>
-      <c r="C249" s="28"/>
+      <c r="A249" s="24"/>
+      <c r="B249" s="27"/>
+      <c r="C249" s="27"/>
     </row>
     <row r="250" spans="1:3">
-      <c r="A250" s="25"/>
-      <c r="B250" s="28"/>
-      <c r="C250" s="28"/>
+      <c r="A250" s="24"/>
+      <c r="B250" s="27"/>
+      <c r="C250" s="27"/>
     </row>
     <row r="251" spans="1:3">
-      <c r="A251" s="25"/>
-      <c r="B251" s="28"/>
-      <c r="C251" s="28"/>
+      <c r="A251" s="24"/>
+      <c r="B251" s="27"/>
+      <c r="C251" s="27"/>
     </row>
     <row r="252" spans="1:3">
-      <c r="A252" s="25"/>
-      <c r="B252" s="28"/>
-      <c r="C252" s="28"/>
+      <c r="A252" s="24"/>
+      <c r="B252" s="27"/>
+      <c r="C252" s="27"/>
     </row>
     <row r="253" spans="1:3">
-      <c r="A253" s="25"/>
-      <c r="B253" s="28"/>
-      <c r="C253" s="28"/>
+      <c r="A253" s="24"/>
+      <c r="B253" s="27"/>
+      <c r="C253" s="27"/>
     </row>
     <row r="254" spans="1:3">
-      <c r="A254" s="25"/>
-      <c r="B254" s="28"/>
-      <c r="C254" s="28"/>
+      <c r="A254" s="24"/>
+      <c r="B254" s="27"/>
+      <c r="C254" s="27"/>
     </row>
     <row r="255" spans="1:3">
-      <c r="A255" s="25"/>
-      <c r="B255" s="28"/>
-      <c r="C255" s="28"/>
+      <c r="A255" s="24"/>
+      <c r="B255" s="27"/>
+      <c r="C255" s="27"/>
     </row>
     <row r="256" spans="1:3">
-      <c r="A256" s="25"/>
-      <c r="B256" s="28"/>
-      <c r="C256" s="28"/>
+      <c r="A256" s="24"/>
+      <c r="B256" s="27"/>
+      <c r="C256" s="27"/>
     </row>
     <row r="257" spans="1:3">
-      <c r="A257" s="25"/>
-      <c r="B257" s="28"/>
-      <c r="C257" s="28"/>
+      <c r="A257" s="24"/>
+      <c r="B257" s="27"/>
+      <c r="C257" s="27"/>
     </row>
     <row r="258" spans="1:3">
-      <c r="A258" s="25"/>
-      <c r="B258" s="28"/>
-      <c r="C258" s="28"/>
+      <c r="A258" s="24"/>
+      <c r="B258" s="27"/>
+      <c r="C258" s="27"/>
     </row>
     <row r="259" spans="1:3">
-      <c r="A259" s="25"/>
-      <c r="B259" s="28"/>
-      <c r="C259" s="28"/>
+      <c r="A259" s="24"/>
+      <c r="B259" s="27"/>
+      <c r="C259" s="27"/>
     </row>
     <row r="260" spans="1:3">
-      <c r="A260" s="25"/>
-      <c r="B260" s="28"/>
-      <c r="C260" s="28"/>
+      <c r="A260" s="24"/>
+      <c r="B260" s="27"/>
+      <c r="C260" s="27"/>
     </row>
     <row r="261" spans="1:3">
-      <c r="A261" s="25"/>
-      <c r="B261" s="28"/>
-      <c r="C261" s="28"/>
+      <c r="A261" s="24"/>
+      <c r="B261" s="27"/>
+      <c r="C261" s="27"/>
     </row>
     <row r="262" spans="1:3">
-      <c r="A262" s="25"/>
-      <c r="B262" s="28"/>
-      <c r="C262" s="28"/>
+      <c r="A262" s="24"/>
+      <c r="B262" s="27"/>
+      <c r="C262" s="27"/>
     </row>
     <row r="263" spans="1:3">
-      <c r="A263" s="25"/>
-      <c r="B263" s="28"/>
-      <c r="C263" s="28"/>
+      <c r="A263" s="24"/>
+      <c r="B263" s="27"/>
+      <c r="C263" s="27"/>
     </row>
     <row r="264" spans="1:3">
-      <c r="A264" s="25"/>
-      <c r="B264" s="28"/>
-      <c r="C264" s="28"/>
+      <c r="A264" s="24"/>
+      <c r="B264" s="27"/>
+      <c r="C264" s="27"/>
     </row>
     <row r="265" spans="1:3">
-      <c r="A265" s="25"/>
-      <c r="B265" s="28"/>
-      <c r="C265" s="28"/>
+      <c r="A265" s="24"/>
+      <c r="B265" s="27"/>
+      <c r="C265" s="27"/>
     </row>
     <row r="266" spans="1:3">
-      <c r="A266" s="25"/>
-      <c r="B266" s="28"/>
-      <c r="C266" s="28"/>
+      <c r="A266" s="24"/>
+      <c r="B266" s="27"/>
+      <c r="C266" s="27"/>
     </row>
     <row r="267" spans="1:3">
-      <c r="A267" s="25"/>
-      <c r="B267" s="28"/>
-      <c r="C267" s="28"/>
+      <c r="A267" s="24"/>
+      <c r="B267" s="27"/>
+      <c r="C267" s="27"/>
     </row>
     <row r="268" spans="1:3">
-      <c r="A268" s="25"/>
-      <c r="B268" s="28"/>
-      <c r="C268" s="28"/>
+      <c r="A268" s="24"/>
+      <c r="B268" s="27"/>
+      <c r="C268" s="27"/>
     </row>
     <row r="269" spans="1:3">
-      <c r="A269" s="25"/>
-      <c r="B269" s="28"/>
-      <c r="C269" s="28"/>
+      <c r="A269" s="24"/>
+      <c r="B269" s="27"/>
+      <c r="C269" s="27"/>
     </row>
     <row r="270" spans="1:3">
-      <c r="A270" s="25"/>
-      <c r="B270" s="28"/>
-      <c r="C270" s="28"/>
+      <c r="A270" s="24"/>
+      <c r="B270" s="27"/>
+      <c r="C270" s="27"/>
     </row>
     <row r="271" spans="1:3">
-      <c r="A271" s="25"/>
-      <c r="B271" s="28"/>
-      <c r="C271" s="28"/>
+      <c r="A271" s="24"/>
+      <c r="B271" s="27"/>
+      <c r="C271" s="27"/>
     </row>
     <row r="272" spans="1:3">
-      <c r="A272" s="25"/>
-      <c r="B272" s="28"/>
-      <c r="C272" s="28"/>
+      <c r="A272" s="24"/>
+      <c r="B272" s="27"/>
+      <c r="C272" s="27"/>
     </row>
     <row r="273" spans="1:3">
-      <c r="A273" s="25"/>
-      <c r="B273" s="28"/>
-      <c r="C273" s="28"/>
+      <c r="A273" s="24"/>
+      <c r="B273" s="27"/>
+      <c r="C273" s="27"/>
     </row>
     <row r="274" spans="1:3">
-      <c r="A274" s="25"/>
-      <c r="B274" s="28"/>
-      <c r="C274" s="28"/>
+      <c r="A274" s="24"/>
+      <c r="B274" s="27"/>
+      <c r="C274" s="27"/>
     </row>
     <row r="275" spans="1:3">
-      <c r="A275" s="25"/>
-      <c r="B275" s="28"/>
-      <c r="C275" s="28"/>
+      <c r="A275" s="24"/>
+      <c r="B275" s="27"/>
+      <c r="C275" s="27"/>
     </row>
     <row r="276" spans="1:3">
-      <c r="A276" s="25"/>
-      <c r="B276" s="28"/>
-      <c r="C276" s="28"/>
+      <c r="A276" s="24"/>
+      <c r="B276" s="27"/>
+      <c r="C276" s="27"/>
     </row>
     <row r="277" spans="1:3">
-      <c r="A277" s="25"/>
-      <c r="B277" s="28"/>
-      <c r="C277" s="28"/>
+      <c r="A277" s="24"/>
+      <c r="B277" s="27"/>
+      <c r="C277" s="27"/>
     </row>
     <row r="278" spans="1:3">
-      <c r="A278" s="25"/>
-      <c r="B278" s="28"/>
-      <c r="C278" s="28"/>
+      <c r="A278" s="24"/>
+      <c r="B278" s="27"/>
+      <c r="C278" s="27"/>
     </row>
     <row r="279" spans="1:3">
-      <c r="A279" s="25"/>
-      <c r="B279" s="28"/>
-      <c r="C279" s="28"/>
+      <c r="A279" s="24"/>
+      <c r="B279" s="27"/>
+      <c r="C279" s="27"/>
     </row>
     <row r="280" spans="1:3">
-      <c r="A280" s="25"/>
-      <c r="B280" s="28"/>
-      <c r="C280" s="28"/>
+      <c r="A280" s="24"/>
+      <c r="B280" s="27"/>
+      <c r="C280" s="27"/>
     </row>
     <row r="281" spans="1:3">
-      <c r="A281" s="25"/>
-      <c r="B281" s="28"/>
-      <c r="C281" s="28"/>
+      <c r="A281" s="24"/>
+      <c r="B281" s="27"/>
+      <c r="C281" s="27"/>
     </row>
     <row r="282" spans="1:3">
-      <c r="A282" s="25"/>
-      <c r="B282" s="28"/>
-      <c r="C282" s="28"/>
+      <c r="A282" s="24"/>
+      <c r="B282" s="27"/>
+      <c r="C282" s="27"/>
     </row>
     <row r="283" spans="1:3">
-      <c r="A283" s="25"/>
-      <c r="B283" s="28"/>
-      <c r="C283" s="28"/>
+      <c r="A283" s="24"/>
+      <c r="B283" s="27"/>
+      <c r="C283" s="27"/>
     </row>
     <row r="284" spans="1:3">
-      <c r="A284" s="25"/>
-      <c r="B284" s="28"/>
-      <c r="C284" s="28"/>
+      <c r="A284" s="24"/>
+      <c r="B284" s="27"/>
+      <c r="C284" s="27"/>
     </row>
     <row r="285" spans="1:3">
-      <c r="A285" s="25"/>
-      <c r="B285" s="28"/>
-      <c r="C285" s="28"/>
+      <c r="A285" s="24"/>
+      <c r="B285" s="27"/>
+      <c r="C285" s="27"/>
     </row>
     <row r="286" spans="1:3">
-      <c r="A286" s="25"/>
-      <c r="B286" s="28"/>
-      <c r="C286" s="28"/>
+      <c r="A286" s="24"/>
+      <c r="B286" s="27"/>
+      <c r="C286" s="27"/>
     </row>
     <row r="287" spans="1:3">
-      <c r="A287" s="25"/>
-      <c r="B287" s="28"/>
-      <c r="C287" s="28"/>
+      <c r="A287" s="24"/>
+      <c r="B287" s="27"/>
+      <c r="C287" s="27"/>
     </row>
     <row r="288" spans="1:3">
-      <c r="A288" s="25"/>
-      <c r="B288" s="28"/>
-      <c r="C288" s="28"/>
+      <c r="A288" s="24"/>
+      <c r="B288" s="27"/>
+      <c r="C288" s="27"/>
     </row>
     <row r="289" spans="1:3">
-      <c r="A289" s="25"/>
-      <c r="B289" s="28"/>
-      <c r="C289" s="28"/>
+      <c r="A289" s="24"/>
+      <c r="B289" s="27"/>
+      <c r="C289" s="27"/>
     </row>
     <row r="290" spans="1:3">
-      <c r="A290" s="25"/>
-      <c r="B290" s="28"/>
-      <c r="C290" s="28"/>
+      <c r="A290" s="24"/>
+      <c r="B290" s="27"/>
+      <c r="C290" s="27"/>
     </row>
     <row r="291" spans="1:3">
-      <c r="A291" s="25"/>
-      <c r="B291" s="28"/>
-      <c r="C291" s="28"/>
+      <c r="A291" s="24"/>
+      <c r="B291" s="27"/>
+      <c r="C291" s="27"/>
     </row>
     <row r="292" spans="1:3">
-      <c r="A292" s="25"/>
-      <c r="B292" s="28"/>
-      <c r="C292" s="28"/>
+      <c r="A292" s="24"/>
+      <c r="B292" s="27"/>
+      <c r="C292" s="27"/>
     </row>
     <row r="293" spans="1:3">
-      <c r="A293" s="25"/>
-      <c r="B293" s="28"/>
-      <c r="C293" s="28"/>
+      <c r="A293" s="24"/>
+      <c r="B293" s="27"/>
+      <c r="C293" s="27"/>
     </row>
     <row r="294" spans="1:3">
-      <c r="A294" s="25"/>
-      <c r="B294" s="28"/>
-      <c r="C294" s="28"/>
+      <c r="A294" s="24"/>
+      <c r="B294" s="27"/>
+      <c r="C294" s="27"/>
     </row>
     <row r="295" spans="1:3">
-      <c r="A295" s="25"/>
-      <c r="B295" s="28"/>
-      <c r="C295" s="28"/>
+      <c r="A295" s="24"/>
+      <c r="B295" s="27"/>
+      <c r="C295" s="27"/>
     </row>
     <row r="296" spans="1:3">
-      <c r="A296" s="25"/>
-      <c r="B296" s="28"/>
-      <c r="C296" s="28"/>
+      <c r="A296" s="24"/>
+      <c r="B296" s="27"/>
+      <c r="C296" s="27"/>
     </row>
     <row r="297" spans="1:3">
-      <c r="A297" s="25"/>
-      <c r="B297" s="28"/>
-      <c r="C297" s="28"/>
+      <c r="A297" s="24"/>
+      <c r="B297" s="27"/>
+      <c r="C297" s="27"/>
     </row>
     <row r="298" spans="1:3">
-      <c r="A298" s="25"/>
-      <c r="B298" s="28"/>
-      <c r="C298" s="28"/>
+      <c r="A298" s="24"/>
+      <c r="B298" s="27"/>
+      <c r="C298" s="27"/>
     </row>
     <row r="299" spans="1:3">
-      <c r="A299" s="25"/>
-      <c r="B299" s="28"/>
-      <c r="C299" s="28"/>
+      <c r="A299" s="24"/>
+      <c r="B299" s="27"/>
+      <c r="C299" s="27"/>
     </row>
     <row r="300" spans="1:3">
-      <c r="A300" s="25"/>
-      <c r="B300" s="28"/>
-      <c r="C300" s="28"/>
+      <c r="A300" s="24"/>
+      <c r="B300" s="27"/>
+      <c r="C300" s="27"/>
     </row>
     <row r="301" spans="1:3">
-      <c r="A301" s="25"/>
-      <c r="B301" s="28"/>
-      <c r="C301" s="28"/>
+      <c r="A301" s="24"/>
+      <c r="B301" s="27"/>
+      <c r="C301" s="27"/>
     </row>
     <row r="302" spans="1:3">
-      <c r="A302" s="25"/>
-      <c r="B302" s="28"/>
-      <c r="C302" s="28"/>
+      <c r="A302" s="24"/>
+      <c r="B302" s="27"/>
+      <c r="C302" s="27"/>
     </row>
     <row r="303" spans="1:3">
-      <c r="A303" s="25"/>
-      <c r="B303" s="28"/>
-      <c r="C303" s="28"/>
+      <c r="A303" s="24"/>
+      <c r="B303" s="27"/>
+      <c r="C303" s="27"/>
     </row>
     <row r="304" spans="1:3">
-      <c r="A304" s="25"/>
-      <c r="B304" s="28"/>
-      <c r="C304" s="28"/>
+      <c r="A304" s="24"/>
+      <c r="B304" s="27"/>
+      <c r="C304" s="27"/>
     </row>
     <row r="305" spans="1:3">
-      <c r="A305" s="25"/>
-      <c r="B305" s="28"/>
-      <c r="C305" s="28"/>
+      <c r="A305" s="24"/>
+      <c r="B305" s="27"/>
+      <c r="C305" s="27"/>
     </row>
     <row r="306" spans="1:3">
-      <c r="A306" s="25"/>
-      <c r="B306" s="28"/>
-      <c r="C306" s="28"/>
+      <c r="A306" s="24"/>
+      <c r="B306" s="27"/>
+      <c r="C306" s="27"/>
     </row>
     <row r="307" spans="1:3">
-      <c r="A307" s="25"/>
-      <c r="B307" s="28"/>
-      <c r="C307" s="28"/>
+      <c r="A307" s="24"/>
+      <c r="B307" s="27"/>
+      <c r="C307" s="27"/>
     </row>
     <row r="308" spans="1:3">
-      <c r="A308" s="25"/>
-      <c r="B308" s="28"/>
-      <c r="C308" s="28"/>
+      <c r="A308" s="24"/>
+      <c r="B308" s="27"/>
+      <c r="C308" s="27"/>
     </row>
     <row r="309" spans="1:3">
-      <c r="A309" s="25"/>
-      <c r="B309" s="28"/>
-      <c r="C309" s="28"/>
+      <c r="A309" s="24"/>
+      <c r="B309" s="27"/>
+      <c r="C309" s="27"/>
     </row>
     <row r="310" spans="1:3">
-      <c r="A310" s="25"/>
-      <c r="B310" s="28"/>
-      <c r="C310" s="28"/>
+      <c r="A310" s="24"/>
+      <c r="B310" s="27"/>
+      <c r="C310" s="27"/>
     </row>
     <row r="311" spans="1:3">
-      <c r="A311" s="25"/>
-      <c r="B311" s="28"/>
-      <c r="C311" s="28"/>
+      <c r="A311" s="24"/>
+      <c r="B311" s="27"/>
+      <c r="C311" s="27"/>
     </row>
     <row r="312" spans="1:3">
-      <c r="A312" s="25"/>
-      <c r="B312" s="28"/>
-      <c r="C312" s="28"/>
+      <c r="A312" s="24"/>
+      <c r="B312" s="27"/>
+      <c r="C312" s="27"/>
     </row>
     <row r="313" spans="1:3">
-      <c r="A313" s="25"/>
-      <c r="B313" s="28"/>
-      <c r="C313" s="28"/>
+      <c r="A313" s="24"/>
+      <c r="B313" s="27"/>
+      <c r="C313" s="27"/>
     </row>
     <row r="314" spans="1:3">
-      <c r="A314" s="25"/>
-      <c r="B314" s="28"/>
-      <c r="C314" s="28"/>
+      <c r="A314" s="24"/>
+      <c r="B314" s="27"/>
+      <c r="C314" s="27"/>
     </row>
     <row r="315" spans="1:3">
-      <c r="A315" s="25"/>
-      <c r="B315" s="28"/>
-      <c r="C315" s="28"/>
+      <c r="A315" s="24"/>
+      <c r="B315" s="27"/>
+      <c r="C315" s="27"/>
     </row>
     <row r="316" spans="1:3">
-      <c r="A316" s="25"/>
-      <c r="B316" s="28"/>
-      <c r="C316" s="28"/>
+      <c r="A316" s="24"/>
+      <c r="B316" s="27"/>
+      <c r="C316" s="27"/>
     </row>
     <row r="317" spans="1:3">
-      <c r="A317" s="25"/>
-      <c r="B317" s="28"/>
-      <c r="C317" s="28"/>
+      <c r="A317" s="24"/>
+      <c r="B317" s="27"/>
+      <c r="C317" s="27"/>
     </row>
     <row r="318" spans="1:3">
-      <c r="A318" s="25"/>
-      <c r="B318" s="28"/>
-      <c r="C318" s="28"/>
+      <c r="A318" s="24"/>
+      <c r="B318" s="27"/>
+      <c r="C318" s="27"/>
     </row>
     <row r="319" spans="1:3">
-      <c r="A319" s="25"/>
-      <c r="B319" s="28"/>
-      <c r="C319" s="28"/>
+      <c r="A319" s="24"/>
+      <c r="B319" s="27"/>
+      <c r="C319" s="27"/>
     </row>
     <row r="320" spans="1:3">
-      <c r="A320" s="25"/>
-      <c r="B320" s="28"/>
-      <c r="C320" s="28"/>
+      <c r="A320" s="24"/>
+      <c r="B320" s="27"/>
+      <c r="C320" s="27"/>
     </row>
     <row r="321" spans="1:3">
-      <c r="A321" s="25"/>
-      <c r="B321" s="28"/>
-      <c r="C321" s="28"/>
+      <c r="A321" s="24"/>
+      <c r="B321" s="27"/>
+      <c r="C321" s="27"/>
     </row>
     <row r="322" spans="1:3">
-      <c r="A322" s="25"/>
-      <c r="B322" s="28"/>
-      <c r="C322" s="28"/>
+      <c r="A322" s="24"/>
+      <c r="B322" s="27"/>
+      <c r="C322" s="27"/>
     </row>
     <row r="323" spans="1:3">
-      <c r="A323" s="25"/>
-      <c r="B323" s="28"/>
-      <c r="C323" s="28"/>
+      <c r="A323" s="24"/>
+      <c r="B323" s="27"/>
+      <c r="C323" s="27"/>
     </row>
     <row r="324" spans="1:3">
-      <c r="A324" s="25"/>
-      <c r="B324" s="28"/>
-      <c r="C324" s="28"/>
+      <c r="A324" s="24"/>
+      <c r="B324" s="27"/>
+      <c r="C324" s="27"/>
     </row>
     <row r="325" spans="1:3">
-      <c r="A325" s="25"/>
-      <c r="B325" s="28"/>
-      <c r="C325" s="28"/>
+      <c r="A325" s="24"/>
+      <c r="B325" s="27"/>
+      <c r="C325" s="27"/>
     </row>
     <row r="326" spans="1:3">
-      <c r="A326" s="25"/>
-      <c r="B326" s="28"/>
-      <c r="C326" s="28"/>
+      <c r="A326" s="24"/>
+      <c r="B326" s="27"/>
+      <c r="C326" s="27"/>
     </row>
     <row r="327" spans="1:3">
-      <c r="A327" s="25"/>
-      <c r="B327" s="28"/>
-      <c r="C327" s="28"/>
+      <c r="A327" s="24"/>
+      <c r="B327" s="27"/>
+      <c r="C327" s="27"/>
     </row>
     <row r="328" spans="1:3">
-      <c r="A328" s="25"/>
-      <c r="B328" s="28"/>
-      <c r="C328" s="28"/>
+      <c r="A328" s="24"/>
+      <c r="B328" s="27"/>
+      <c r="C328" s="27"/>
     </row>
     <row r="329" spans="1:3">
-      <c r="A329" s="25"/>
-      <c r="B329" s="28"/>
-      <c r="C329" s="28"/>
+      <c r="A329" s="24"/>
+      <c r="B329" s="27"/>
+      <c r="C329" s="27"/>
     </row>
     <row r="330" spans="1:3">
-      <c r="A330" s="25"/>
-      <c r="B330" s="28"/>
-      <c r="C330" s="28"/>
+      <c r="A330" s="24"/>
+      <c r="B330" s="27"/>
+      <c r="C330" s="27"/>
     </row>
     <row r="331" spans="1:3">
-      <c r="A331" s="25"/>
-      <c r="B331" s="28"/>
-      <c r="C331" s="28"/>
+      <c r="A331" s="24"/>
+      <c r="B331" s="27"/>
+      <c r="C331" s="27"/>
     </row>
     <row r="332" spans="1:3">
-      <c r="A332" s="25"/>
-      <c r="B332" s="28"/>
-      <c r="C332" s="28"/>
+      <c r="A332" s="24"/>
+      <c r="B332" s="27"/>
+      <c r="C332" s="27"/>
     </row>
     <row r="333" spans="1:3">
-      <c r="A333" s="25"/>
-      <c r="B333" s="28"/>
-      <c r="C333" s="28"/>
+      <c r="A333" s="24"/>
+      <c r="B333" s="27"/>
+      <c r="C333" s="27"/>
     </row>
     <row r="334" spans="1:3">
-      <c r="A334" s="25"/>
-      <c r="B334" s="28"/>
-      <c r="C334" s="28"/>
+      <c r="A334" s="24"/>
+      <c r="B334" s="27"/>
+      <c r="C334" s="27"/>
     </row>
     <row r="335" spans="1:3">
-      <c r="A335" s="25"/>
-      <c r="B335" s="28"/>
-      <c r="C335" s="28"/>
+      <c r="A335" s="24"/>
+      <c r="B335" s="27"/>
+      <c r="C335" s="27"/>
     </row>
     <row r="336" spans="1:3">
-      <c r="A336" s="25"/>
-      <c r="B336" s="28"/>
-      <c r="C336" s="28"/>
+      <c r="A336" s="24"/>
+      <c r="B336" s="27"/>
+      <c r="C336" s="27"/>
     </row>
     <row r="337" spans="1:3">
-      <c r="A337" s="25"/>
-      <c r="B337" s="28"/>
-      <c r="C337" s="28"/>
+      <c r="A337" s="24"/>
+      <c r="B337" s="27"/>
+      <c r="C337" s="27"/>
     </row>
     <row r="338" spans="1:3">
-      <c r="A338" s="25"/>
-      <c r="B338" s="28"/>
-      <c r="C338" s="28"/>
+      <c r="A338" s="24"/>
+      <c r="B338" s="27"/>
+      <c r="C338" s="27"/>
     </row>
     <row r="339" spans="1:3">
-      <c r="A339" s="25"/>
-      <c r="B339" s="28"/>
-      <c r="C339" s="28"/>
+      <c r="A339" s="24"/>
+      <c r="B339" s="27"/>
+      <c r="C339" s="27"/>
     </row>
     <row r="340" spans="1:3">
-      <c r="A340" s="25"/>
-      <c r="B340" s="28"/>
-      <c r="C340" s="28"/>
+      <c r="A340" s="24"/>
+      <c r="B340" s="27"/>
+      <c r="C340" s="27"/>
     </row>
     <row r="341" spans="1:3">
-      <c r="A341" s="25"/>
-      <c r="B341" s="28"/>
-      <c r="C341" s="28"/>
+      <c r="A341" s="24"/>
+      <c r="B341" s="27"/>
+      <c r="C341" s="27"/>
     </row>
     <row r="342" spans="1:3">
-      <c r="A342" s="25"/>
-      <c r="B342" s="28"/>
-      <c r="C342" s="28"/>
+      <c r="A342" s="24"/>
+      <c r="B342" s="27"/>
+      <c r="C342" s="27"/>
     </row>
     <row r="343" spans="1:3">
-      <c r="A343" s="25"/>
-      <c r="B343" s="28"/>
-      <c r="C343" s="28"/>
+      <c r="A343" s="24"/>
+      <c r="B343" s="27"/>
+      <c r="C343" s="27"/>
     </row>
     <row r="344" spans="1:3">
-      <c r="A344" s="25"/>
-      <c r="B344" s="28"/>
-      <c r="C344" s="28"/>
+      <c r="A344" s="24"/>
+      <c r="B344" s="27"/>
+      <c r="C344" s="27"/>
     </row>
     <row r="345" spans="1:3">
-      <c r="A345" s="25"/>
-      <c r="B345" s="28"/>
-      <c r="C345" s="28"/>
+      <c r="A345" s="24"/>
+      <c r="B345" s="27"/>
+      <c r="C345" s="27"/>
     </row>
     <row r="346" spans="1:3">
-      <c r="A346" s="25"/>
-      <c r="B346" s="28"/>
-      <c r="C346" s="28"/>
+      <c r="A346" s="24"/>
+      <c r="B346" s="27"/>
+      <c r="C346" s="27"/>
     </row>
     <row r="347" spans="1:3">
-      <c r="A347" s="25"/>
-      <c r="B347" s="28"/>
-      <c r="C347" s="28"/>
+      <c r="A347" s="24"/>
+      <c r="B347" s="27"/>
+      <c r="C347" s="27"/>
     </row>
     <row r="348" spans="1:3">
-      <c r="A348" s="25"/>
-      <c r="B348" s="28"/>
-      <c r="C348" s="28"/>
+      <c r="A348" s="24"/>
+      <c r="B348" s="27"/>
+      <c r="C348" s="27"/>
     </row>
     <row r="349" spans="1:3">
-      <c r="A349" s="25"/>
-      <c r="B349" s="28"/>
-      <c r="C349" s="28"/>
+      <c r="A349" s="24"/>
+      <c r="B349" s="27"/>
+      <c r="C349" s="27"/>
     </row>
     <row r="350" spans="1:3">
-      <c r="A350" s="25"/>
-      <c r="B350" s="28"/>
-      <c r="C350" s="28"/>
+      <c r="A350" s="24"/>
+      <c r="B350" s="27"/>
+      <c r="C350" s="27"/>
     </row>
     <row r="351" spans="1:3">
-      <c r="A351" s="25"/>
-      <c r="B351" s="28"/>
-      <c r="C351" s="28"/>
+      <c r="A351" s="24"/>
+      <c r="B351" s="27"/>
+      <c r="C351" s="27"/>
     </row>
     <row r="352" spans="1:3">
-      <c r="A352" s="25"/>
-      <c r="B352" s="28"/>
-      <c r="C352" s="28"/>
+      <c r="A352" s="24"/>
+      <c r="B352" s="27"/>
+      <c r="C352" s="27"/>
     </row>
     <row r="353" spans="1:3">
-      <c r="A353" s="25"/>
-      <c r="B353" s="28"/>
-      <c r="C353" s="28"/>
+      <c r="A353" s="24"/>
+      <c r="B353" s="27"/>
+      <c r="C353" s="27"/>
     </row>
     <row r="354" spans="1:3">
-      <c r="A354" s="25"/>
-      <c r="B354" s="28"/>
-      <c r="C354" s="28"/>
+      <c r="A354" s="24"/>
+      <c r="B354" s="27"/>
+      <c r="C354" s="27"/>
     </row>
     <row r="355" spans="1:3">
-      <c r="A355" s="25"/>
-      <c r="B355" s="28"/>
-      <c r="C355" s="28"/>
+      <c r="A355" s="24"/>
+      <c r="B355" s="27"/>
+      <c r="C355" s="27"/>
     </row>
     <row r="356" spans="1:3">
-      <c r="A356" s="25"/>
-      <c r="B356" s="28"/>
-      <c r="C356" s="28"/>
+      <c r="A356" s="24"/>
+      <c r="B356" s="27"/>
+      <c r="C356" s="27"/>
     </row>
     <row r="357" spans="1:3">
-      <c r="A357" s="25"/>
-      <c r="B357" s="28"/>
-      <c r="C357" s="28"/>
+      <c r="A357" s="24"/>
+      <c r="B357" s="27"/>
+      <c r="C357" s="27"/>
     </row>
     <row r="358" spans="1:3">
-      <c r="A358" s="25"/>
-      <c r="B358" s="28"/>
-      <c r="C358" s="28"/>
+      <c r="A358" s="24"/>
+      <c r="B358" s="27"/>
+      <c r="C358" s="27"/>
     </row>
     <row r="359" spans="1:3">
-      <c r="A359" s="25"/>
-      <c r="B359" s="28"/>
-      <c r="C359" s="28"/>
+      <c r="A359" s="24"/>
+      <c r="B359" s="27"/>
+      <c r="C359" s="27"/>
     </row>
     <row r="360" spans="1:3">
-      <c r="A360" s="25"/>
-      <c r="B360" s="28"/>
-      <c r="C360" s="28"/>
+      <c r="A360" s="24"/>
+      <c r="B360" s="27"/>
+      <c r="C360" s="27"/>
     </row>
     <row r="361" spans="1:3">
-      <c r="A361" s="25"/>
-      <c r="B361" s="28"/>
-      <c r="C361" s="28"/>
+      <c r="A361" s="24"/>
+      <c r="B361" s="27"/>
+      <c r="C361" s="27"/>
     </row>
     <row r="362" spans="1:3">
-      <c r="A362" s="25"/>
-      <c r="B362" s="28"/>
-      <c r="C362" s="28"/>
+      <c r="A362" s="24"/>
+      <c r="B362" s="27"/>
+      <c r="C362" s="27"/>
     </row>
     <row r="363" spans="1:3">
-      <c r="A363" s="25"/>
-      <c r="B363" s="28"/>
-      <c r="C363" s="28"/>
+      <c r="A363" s="24"/>
+      <c r="B363" s="27"/>
+      <c r="C363" s="27"/>
     </row>
     <row r="364" spans="1:3">
-      <c r="A364" s="25"/>
-      <c r="B364" s="28"/>
-      <c r="C364" s="28"/>
+      <c r="A364" s="24"/>
+      <c r="B364" s="27"/>
+      <c r="C364" s="27"/>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" s="24"/>
+      <c r="B365" s="27"/>
+      <c r="C365" s="27"/>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366" s="24"/>
+      <c r="B366" s="27"/>
+      <c r="C366" s="27"/>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" s="24"/>
+      <c r="B367" s="27"/>
+      <c r="C367" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>

--- a/weekly/要做的事.xlsx
+++ b/weekly/要做的事.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="90">
   <si>
     <t>完成情况%</t>
   </si>
@@ -547,6 +547,18 @@
   </si>
   <si>
     <t>解决在数据集上丢失的问题</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>李修华老师精细农业</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计适合山地类型的机器人，并扯上slam，无人机续航能力差，需要留有适合机器人行走的道路</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙胜梯田、波斯顿、机器人终极环境</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -1121,8 +1133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1902,25 +1914,29 @@
       <c r="A95" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B95" s="7" t="s">
-        <v>31</v>
+      <c r="B95" s="32" t="s">
+        <v>87</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="16.5">
+    <row r="96" spans="1:3" ht="15">
       <c r="A96" s="11">
         <v>1</v>
       </c>
-      <c r="B96" s="15"/>
+      <c r="B96" s="16" t="s">
+        <v>88</v>
+      </c>
       <c r="C96" s="22"/>
     </row>
-    <row r="97" spans="1:3" ht="16.5">
+    <row r="97" spans="1:3" ht="15">
       <c r="A97" s="11">
         <v>2</v>
       </c>
-      <c r="B97" s="15"/>
+      <c r="B97" s="16" t="s">
+        <v>89</v>
+      </c>
       <c r="C97" s="22"/>
     </row>
     <row r="98" spans="1:3" ht="16.5">

--- a/weekly/要做的事.xlsx
+++ b/weekly/要做的事.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="91">
   <si>
     <t>完成情况%</t>
   </si>
@@ -559,6 +559,10 @@
   </si>
   <si>
     <t>龙胜梯田、波斯顿、机器人终极环境</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写一个专门计算矩阵逆等的python小程序，注意计算效率</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -1133,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1971,11 +1975,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="16.5">
+    <row r="103" spans="1:3" ht="15">
       <c r="A103" s="11">
         <v>1</v>
       </c>
-      <c r="B103" s="15"/>
+      <c r="B103" s="16" t="s">
+        <v>90</v>
+      </c>
       <c r="C103" s="22"/>
     </row>
     <row r="104" spans="1:3">

--- a/weekly/要做的事.xlsx
+++ b/weekly/要做的事.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>完成情况%</t>
   </si>
@@ -563,6 +563,10 @@
   </si>
   <si>
     <t>编写一个专门计算矩阵逆等的python小程序，注意计算效率</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>尝试看书的时候一遍把书全部看懂</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -1137,8 +1141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1988,7 +1992,9 @@
       <c r="A104" s="11">
         <v>2</v>
       </c>
-      <c r="B104" s="7"/>
+      <c r="B104" s="32" t="s">
+        <v>91</v>
+      </c>
       <c r="C104" s="22"/>
     </row>
     <row r="105" spans="1:3" ht="16.5">

--- a/weekly/要做的事.xlsx
+++ b/weekly/要做的事.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="93">
   <si>
     <t>完成情况%</t>
   </si>
@@ -567,6 +567,10 @@
   </si>
   <si>
     <t>尝试看书的时候一遍把书全部看懂</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>把orbslam2涉及的数学知识提炼出来，分下类线性方程和非线性方程，并比较计算速度（查找比较计算速度方法，乘除等计算所需时间），可以尝试到计算机视觉讲一讲</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -1141,8 +1145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1897,11 +1901,13 @@
       </c>
       <c r="C90" s="22"/>
     </row>
-    <row r="91" spans="1:3" ht="16.5">
+    <row r="91" spans="1:3" ht="15">
       <c r="A91" s="11">
         <v>3</v>
       </c>
-      <c r="B91" s="15"/>
+      <c r="B91" s="16" t="s">
+        <v>92</v>
+      </c>
       <c r="C91" s="22"/>
     </row>
     <row r="92" spans="1:3" ht="16.5">

--- a/weekly/要做的事.xlsx
+++ b/weekly/要做的事.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="91">
   <si>
     <t>完成情况%</t>
   </si>
@@ -551,14 +551,6 @@
   </si>
   <si>
     <t>李修华老师精细农业</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计适合山地类型的机器人，并扯上slam，无人机续航能力差，需要留有适合机器人行走的道路</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙胜梯田、波斯顿、机器人终极环境</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
@@ -1145,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1906,7 +1898,7 @@
         <v>3</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C91" s="22"/>
     </row>
@@ -1939,18 +1931,14 @@
       <c r="A96" s="11">
         <v>1</v>
       </c>
-      <c r="B96" s="16" t="s">
-        <v>88</v>
-      </c>
+      <c r="B96" s="16"/>
       <c r="C96" s="22"/>
     </row>
     <row r="97" spans="1:3" ht="15">
       <c r="A97" s="11">
         <v>2</v>
       </c>
-      <c r="B97" s="16" t="s">
-        <v>89</v>
-      </c>
+      <c r="B97" s="16"/>
       <c r="C97" s="22"/>
     </row>
     <row r="98" spans="1:3" ht="16.5">
@@ -1990,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C103" s="22"/>
     </row>
@@ -1999,7 +1987,7 @@
         <v>2</v>
       </c>
       <c r="B104" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C104" s="22"/>
     </row>

--- a/weekly/要做的事.xlsx
+++ b/weekly/要做的事.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\postgraduate\summary\weekly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\postgraduate\summary\weekly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293EB51A-E4C8-4FE3-88C1-ADB042041C28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -526,10 +527,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>这学期到下学期先做传统的，熟悉常见框架，解决机器人问题，评估出论文的可行性，提高代码能力，同时花部分精力关注其他方向，也为明年暑假实习（可以提前点，凑够2、3个月，留意大厂实习）做准备，直到明年暑假去实习完；暑假实习完后选个合适方向准备出论文和考虑是否读博</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>看多视图几何书</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -563,13 +560,17 @@
   </si>
   <si>
     <t>把orbslam2涉及的数学知识提炼出来，分下类线性方程和非线性方程，并比较计算速度（查找比较计算速度方法，乘除等计算所需时间），可以尝试到计算机视觉讲一讲</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>这学期到下学期先做传统的，熟悉常见框架，解决机器人问题，评估出论文的可行性，提高代码能力，同时花部分精力关注其他方向，也为明年暑假实习（可以提前点，凑够2、3个月，留意大厂实习，可以问问刘鸿麟）做准备，直到明年暑假去实习完；暑假实习完后选个合适方向准备出论文和考虑是否读博</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="11"/>
@@ -1134,11 +1135,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C367"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1176,7 +1177,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1390,7 +1391,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="21" customHeight="1">
@@ -1781,7 +1782,7 @@
         <v>3</v>
       </c>
       <c r="B76" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C76" s="5"/>
     </row>
@@ -1869,7 +1870,7 @@
         <v>34</v>
       </c>
       <c r="B88" s="32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>23</v>
@@ -1880,7 +1881,7 @@
         <v>1</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C89" s="22"/>
     </row>
@@ -1889,7 +1890,7 @@
         <v>2</v>
       </c>
       <c r="B90" s="32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C90" s="22"/>
     </row>
@@ -1898,7 +1899,7 @@
         <v>3</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C91" s="22"/>
     </row>
@@ -1921,7 +1922,7 @@
         <v>35</v>
       </c>
       <c r="B95" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>23</v>
@@ -1978,7 +1979,7 @@
         <v>1</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C103" s="22"/>
     </row>
@@ -1987,7 +1988,7 @@
         <v>2</v>
       </c>
       <c r="B104" s="32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C104" s="22"/>
     </row>

--- a/weekly/要做的事.xlsx
+++ b/weekly/要做的事.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\postgraduate\summary\weekly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293EB51A-E4C8-4FE3-88C1-ADB042041C28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA93D095-C67D-4996-910B-9F5FF49BA27D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>完成情况%</t>
   </si>
@@ -539,14 +539,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>先放到机器人上跑一跑</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>解决在数据集上丢失的问题</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>李修华老师精细农业</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -564,6 +556,18 @@
   </si>
   <si>
     <t>这学期到下学期先做传统的，熟悉常见框架，解决机器人问题，评估出论文的可行性，提高代码能力，同时花部分精力关注其他方向，也为明年暑假实习（可以提前点，凑够2、3个月，留意大厂实习，可以问问刘鸿麟）做准备，直到明年暑假去实习完；暑假实习完后选个合适方向准备出论文和考虑是否读博</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑单目，解决在数据集上丢失的问题</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>单目标定，用ros外接摄像头跑。</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>放到机器人上跑一跑</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -749,7 +753,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -860,6 +864,9 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1138,8 +1145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C367"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1177,7 +1184,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1876,12 +1883,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="15">
+    <row r="89" spans="1:3">
       <c r="A89" s="11">
         <v>1</v>
       </c>
-      <c r="B89" s="16" t="s">
-        <v>84</v>
+      <c r="B89" s="32" t="s">
+        <v>89</v>
       </c>
       <c r="C89" s="22"/>
     </row>
@@ -1889,8 +1896,8 @@
       <c r="A90" s="11">
         <v>2</v>
       </c>
-      <c r="B90" s="32" t="s">
-        <v>85</v>
+      <c r="B90" s="37" t="s">
+        <v>90</v>
       </c>
       <c r="C90" s="22"/>
     </row>
@@ -1899,22 +1906,23 @@
         <v>3</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C91" s="22"/>
     </row>
-    <row r="92" spans="1:3" ht="16.5">
+    <row r="92" spans="1:3" ht="15">
       <c r="A92" s="11">
         <v>4</v>
       </c>
-      <c r="B92" s="15"/>
+      <c r="B92" s="16" t="s">
+        <v>91</v>
+      </c>
       <c r="C92" s="22"/>
     </row>
-    <row r="93" spans="1:3" ht="16.5">
+    <row r="93" spans="1:3">
       <c r="A93" s="11">
         <v>5</v>
       </c>
-      <c r="B93" s="15"/>
       <c r="C93" s="22"/>
     </row>
     <row r="95" spans="1:3">
@@ -1922,7 +1930,7 @@
         <v>35</v>
       </c>
       <c r="B95" s="32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>23</v>
@@ -1979,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C103" s="22"/>
     </row>
@@ -1988,7 +1996,7 @@
         <v>2</v>
       </c>
       <c r="B104" s="32" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C104" s="22"/>
     </row>

--- a/weekly/要做的事.xlsx
+++ b/weekly/要做的事.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\postgraduate\summary\weekly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA93D095-C67D-4996-910B-9F5FF49BA27D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A55688-A444-4A9F-B9BC-77F3B22FF9D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -753,7 +753,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -861,9 +861,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1145,8 +1142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1228,8 +1225,8 @@
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="5">
-        <v>0.7</v>
+      <c r="C9" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.5">
@@ -1251,7 +1248,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="6">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1294,7 +1291,9 @@
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="18" customHeight="1">
       <c r="A16" s="2">
@@ -1367,6 +1366,9 @@
       </c>
       <c r="B23" s="8" t="s">
         <v>21</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.5</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="21" customHeight="1">
@@ -1791,7 +1793,9 @@
       <c r="B76" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="C76" s="5"/>
+      <c r="C76" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="11">
@@ -1861,7 +1865,9 @@
       <c r="B85" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C85" s="5"/>
+      <c r="C85" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="86" spans="1:3" ht="15">
       <c r="A86" s="24">
@@ -1870,7 +1876,9 @@
       <c r="B86" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C86" s="36"/>
+      <c r="C86" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="9" t="s">
@@ -1890,16 +1898,20 @@
       <c r="B89" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="C89" s="22"/>
+      <c r="C89" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="11">
         <v>2</v>
       </c>
-      <c r="B90" s="37" t="s">
+      <c r="B90" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="C90" s="22"/>
+      <c r="C90" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="91" spans="1:3" ht="15">
       <c r="A91" s="11">
@@ -1917,7 +1929,9 @@
       <c r="B92" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C92" s="22"/>
+      <c r="C92" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="11">

--- a/weekly/要做的事.xlsx
+++ b/weekly/要做的事.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\postgraduate\summary\weekly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A55688-A444-4A9F-B9BC-77F3B22FF9D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEC05E0-B8D9-478C-B9EB-B61A50D57D82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="93">
   <si>
     <t>完成情况%</t>
   </si>
@@ -296,27 +296,6 @@
     <t>第12周计划看的论文</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开始学习</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>SLAM</t>
-    </r>
-  </si>
-  <si>
     <t>第13周计划看的论文</t>
   </si>
   <si>
@@ -568,6 +547,14 @@
   </si>
   <si>
     <t>放到机器人上跑一跑</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>开学后</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>结合别人论文的创新点和优缺点，整理想法，跟老师汇报</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -1142,8 +1129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1165,7 +1152,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="69" customHeight="1">
@@ -1173,7 +1160,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45.75" customHeight="1">
@@ -1181,7 +1168,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1335,7 +1322,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
@@ -1376,7 +1363,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="21" customHeight="1">
@@ -1384,7 +1371,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="21" customHeight="1">
@@ -1392,7 +1379,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="21" customHeight="1">
@@ -1400,7 +1387,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="21" customHeight="1">
@@ -1423,7 +1410,7 @@
         <v>22</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>23</v>
@@ -1445,7 +1432,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C33" s="5">
         <v>1</v>
@@ -1464,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C35" s="5"/>
     </row>
@@ -1473,7 +1460,7 @@
         <v>5</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C36" s="6"/>
     </row>
@@ -1541,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="B46" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C46" s="5">
         <v>1</v>
@@ -1552,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C47" s="5">
         <v>1</v>
@@ -1563,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C48" s="5">
         <v>1</v>
@@ -1574,7 +1561,7 @@
         <v>4</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C49" s="5">
         <v>1</v>
@@ -1595,7 +1582,7 @@
         <v>28</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>23</v>
@@ -1606,7 +1593,7 @@
         <v>1</v>
       </c>
       <c r="B53" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C53" s="5">
         <v>1</v>
@@ -1617,7 +1604,7 @@
         <v>2</v>
       </c>
       <c r="B54" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C54" s="5">
         <v>1</v>
@@ -1628,7 +1615,7 @@
         <v>3</v>
       </c>
       <c r="B55" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C55" s="5">
         <v>1</v>
@@ -1639,7 +1626,7 @@
         <v>4</v>
       </c>
       <c r="B56" s="34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C56" s="5">
         <v>1</v>
@@ -1650,7 +1637,7 @@
         <v>5</v>
       </c>
       <c r="B57" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C57" s="7"/>
     </row>
@@ -1662,7 +1649,7 @@
         <v>29</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>23</v>
@@ -1673,7 +1660,7 @@
         <v>1</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C60" s="5">
         <v>1</v>
@@ -1712,7 +1699,7 @@
         <v>30</v>
       </c>
       <c r="B66" s="32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>23</v>
@@ -1723,7 +1710,7 @@
         <v>1</v>
       </c>
       <c r="B67" s="35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C67" s="5">
         <v>1</v>
@@ -1762,7 +1749,7 @@
         <v>32</v>
       </c>
       <c r="B73" s="32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>23</v>
@@ -1773,7 +1760,7 @@
         <v>1</v>
       </c>
       <c r="B74" s="33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C74" s="5"/>
     </row>
@@ -1782,7 +1769,7 @@
         <v>2</v>
       </c>
       <c r="B75" s="33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C75" s="5"/>
     </row>
@@ -1791,7 +1778,7 @@
         <v>3</v>
       </c>
       <c r="B76" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C76" s="5">
         <v>1</v>
@@ -1816,7 +1803,7 @@
         <v>33</v>
       </c>
       <c r="B80" s="32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>23</v>
@@ -1827,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="B81" s="29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C81" s="5"/>
     </row>
@@ -1836,7 +1823,7 @@
         <v>2</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C82" s="5"/>
     </row>
@@ -1845,7 +1832,7 @@
         <v>3</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C83" s="5"/>
     </row>
@@ -1854,7 +1841,7 @@
         <v>4</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C84" s="5"/>
     </row>
@@ -1863,7 +1850,7 @@
         <v>5</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C85" s="5">
         <v>1</v>
@@ -1874,7 +1861,7 @@
         <v>6</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C86" s="5">
         <v>1</v>
@@ -1885,7 +1872,7 @@
         <v>34</v>
       </c>
       <c r="B88" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>23</v>
@@ -1896,7 +1883,7 @@
         <v>1</v>
       </c>
       <c r="B89" s="32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C89" s="5">
         <v>1</v>
@@ -1907,7 +1894,7 @@
         <v>2</v>
       </c>
       <c r="B90" s="36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C90" s="5">
         <v>1</v>
@@ -1918,7 +1905,7 @@
         <v>3</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C91" s="22"/>
     </row>
@@ -1927,7 +1914,7 @@
         <v>4</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C92" s="5">
         <v>1</v>
@@ -1944,7 +1931,7 @@
         <v>35</v>
       </c>
       <c r="B95" s="32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>23</v>
@@ -2001,7 +1988,7 @@
         <v>1</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C103" s="22"/>
     </row>
@@ -2010,7 +1997,7 @@
         <v>2</v>
       </c>
       <c r="B104" s="32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C104" s="22"/>
     </row>
@@ -2039,8 +2026,8 @@
       <c r="A109" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B109" s="14" t="s">
-        <v>38</v>
+      <c r="B109" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>23</v>
@@ -2049,6 +2036,9 @@
     <row r="110" spans="1:3">
       <c r="A110" s="11">
         <v>1</v>
+      </c>
+      <c r="B110" s="29" t="s">
+        <v>92</v>
       </c>
       <c r="C110" s="22"/>
     </row>
@@ -2082,7 +2072,7 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B117" s="7" t="s">
         <v>31</v>
@@ -2123,7 +2113,7 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>23</v>
@@ -2165,7 +2155,7 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B132" s="7" t="s">
         <v>31</v>
@@ -2206,7 +2196,7 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C139" s="7" t="s">
         <v>23</v>
@@ -2244,7 +2234,7 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B146" s="7" t="s">
         <v>31</v>
@@ -2290,7 +2280,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B153" s="7" t="s">
         <v>31</v>
@@ -2336,7 +2326,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B160" s="7" t="s">
         <v>31</v>
@@ -2382,7 +2372,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B167" s="7" t="s">
         <v>31</v>
